--- a/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIMES-models\TIM\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F3E37-31DB-40CE-AA73-570A1A6C314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3708A09C-4FE5-42DA-A91C-8806D831ADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="78" r:id="rId1"/>
@@ -9656,7 +9656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="571">
   <si>
     <t>Expected share of space heating demand (%)</t>
   </si>
@@ -10385,9 +10385,6 @@
   </si>
   <si>
     <t>10-15</t>
-  </si>
-  <si>
-    <t>15-20</t>
   </si>
   <si>
     <t>GHP-ad-brine-water_DK</t>
@@ -13679,6 +13676,10 @@
     <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="117" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13688,10 +13689,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14881,7 +14878,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Start"/>
@@ -15060,7 +15057,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15079,7 +15076,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -15124,7 +15121,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7_Buildings managed by municipa"/>
@@ -15141,7 +15138,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -15276,7 +15273,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Macro1"/>
@@ -15289,7 +15286,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Population"/>
@@ -15718,20 +15715,20 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="347"/>
       <c r="B1" s="347"/>
       <c r="C1" s="347"/>
@@ -15759,7 +15756,7 @@
       <c r="Y1" s="348"/>
       <c r="Z1" s="348"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="347"/>
       <c r="B2" s="347"/>
       <c r="C2" s="347"/>
@@ -15787,7 +15784,7 @@
       <c r="Y2" s="348"/>
       <c r="Z2" s="348"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="347"/>
       <c r="B3" s="347"/>
       <c r="C3" s="347"/>
@@ -15815,7 +15812,7 @@
       <c r="Y3" s="348"/>
       <c r="Z3" s="348"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="347"/>
       <c r="B4" s="347"/>
       <c r="C4" s="347"/>
@@ -15843,7 +15840,7 @@
       <c r="Y4" s="348"/>
       <c r="Z4" s="348"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="347"/>
       <c r="B5" s="347"/>
       <c r="C5" s="347"/>
@@ -15871,7 +15868,7 @@
       <c r="Y5" s="348"/>
       <c r="Z5" s="348"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="347"/>
       <c r="B6" s="347"/>
       <c r="C6" s="347"/>
@@ -15899,7 +15896,7 @@
       <c r="Y6" s="348"/>
       <c r="Z6" s="348"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="347"/>
       <c r="B7" s="347"/>
       <c r="C7" s="347"/>
@@ -15927,7 +15924,7 @@
       <c r="Y7" s="348"/>
       <c r="Z7" s="348"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="347"/>
       <c r="B8" s="347"/>
       <c r="C8" s="347"/>
@@ -15955,7 +15952,7 @@
       <c r="Y8" s="348"/>
       <c r="Z8" s="348"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="347"/>
       <c r="B9" s="347"/>
       <c r="C9" s="347"/>
@@ -15983,7 +15980,7 @@
       <c r="Y9" s="348"/>
       <c r="Z9" s="348"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="347"/>
       <c r="B10" s="347"/>
       <c r="C10" s="347"/>
@@ -16011,7 +16008,7 @@
       <c r="Y10" s="348"/>
       <c r="Z10" s="348"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="347"/>
       <c r="B11" s="347"/>
       <c r="C11" s="347"/>
@@ -16039,7 +16036,7 @@
       <c r="Y11" s="348"/>
       <c r="Z11" s="348"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="347"/>
       <c r="B12" s="347"/>
       <c r="C12" s="347"/>
@@ -16067,7 +16064,7 @@
       <c r="Y12" s="348"/>
       <c r="Z12" s="348"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="347"/>
       <c r="B13" s="347"/>
       <c r="C13" s="347"/>
@@ -16095,7 +16092,7 @@
       <c r="Y13" s="348"/>
       <c r="Z13" s="348"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="347"/>
       <c r="B14" s="347"/>
       <c r="C14" s="347"/>
@@ -16123,7 +16120,7 @@
       <c r="Y14" s="348"/>
       <c r="Z14" s="348"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="347"/>
       <c r="B15" s="347"/>
       <c r="C15" s="347"/>
@@ -16151,9 +16148,9 @@
       <c r="Y15" s="348"/>
       <c r="Z15" s="348"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="363" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B16" s="363"/>
       <c r="C16" s="363"/>
@@ -16181,7 +16178,7 @@
       <c r="Y16" s="348"/>
       <c r="Z16" s="348"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="351"/>
       <c r="B17" s="351"/>
       <c r="C17" s="351"/>
@@ -16209,7 +16206,7 @@
       <c r="Y17" s="348"/>
       <c r="Z17" s="348"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="351"/>
       <c r="B18" s="351"/>
       <c r="C18" s="351"/>
@@ -16237,12 +16234,12 @@
       <c r="Y18" s="348"/>
       <c r="Z18" s="348"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="354" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="362" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C19" s="362"/>
       <c r="D19" s="362"/>
@@ -16269,12 +16266,12 @@
       <c r="Y19" s="348"/>
       <c r="Z19" s="348"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="354" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B20" s="362" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C20" s="362"/>
       <c r="D20" s="362"/>
@@ -16301,12 +16298,12 @@
       <c r="Y20" s="348"/>
       <c r="Z20" s="348"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="354" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B21" s="357" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C21" s="357"/>
       <c r="D21" s="357"/>
@@ -16333,7 +16330,7 @@
       <c r="Y21" s="348"/>
       <c r="Z21" s="348"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="354"/>
       <c r="B22" s="357"/>
       <c r="C22" s="357"/>
@@ -16361,9 +16358,9 @@
       <c r="Y22" s="348"/>
       <c r="Z22" s="348"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="354" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B23" s="362"/>
       <c r="C23" s="362"/>
@@ -16391,7 +16388,7 @@
       <c r="Y23" s="348"/>
       <c r="Z23" s="348"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="354"/>
       <c r="B24" s="357"/>
       <c r="C24" s="357"/>
@@ -16419,7 +16416,7 @@
       <c r="Y24" s="348"/>
       <c r="Z24" s="348"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="354"/>
       <c r="B25" s="357"/>
       <c r="C25" s="357"/>
@@ -16447,12 +16444,12 @@
       <c r="Y25" s="348"/>
       <c r="Z25" s="348"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="354" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B26" s="362" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C26" s="362"/>
       <c r="D26" s="362"/>
@@ -16479,7 +16476,7 @@
       <c r="Y26" s="348"/>
       <c r="Z26" s="348"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="354"/>
       <c r="B27" s="357"/>
       <c r="C27" s="357"/>
@@ -16507,7 +16504,7 @@
       <c r="Y27" s="348"/>
       <c r="Z27" s="348"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="354"/>
       <c r="B28" s="357"/>
       <c r="C28" s="357"/>
@@ -16535,9 +16532,9 @@
       <c r="Y28" s="348"/>
       <c r="Z28" s="348"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="354" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B29" s="358">
         <v>1</v>
@@ -16567,12 +16564,12 @@
       <c r="Y29" s="348"/>
       <c r="Z29" s="348"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="354" t="s">
+        <v>562</v>
+      </c>
+      <c r="B30" s="364" t="s">
         <v>563</v>
-      </c>
-      <c r="B30" s="364" t="s">
-        <v>564</v>
       </c>
       <c r="C30" s="362"/>
       <c r="D30" s="362"/>
@@ -16599,12 +16596,12 @@
       <c r="Y30" s="348"/>
       <c r="Z30" s="348"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="354" t="s">
+        <v>564</v>
+      </c>
+      <c r="B31" s="362" t="s">
         <v>565</v>
-      </c>
-      <c r="B31" s="362" t="s">
-        <v>566</v>
       </c>
       <c r="C31" s="362"/>
       <c r="D31" s="362"/>
@@ -16631,10 +16628,10 @@
       <c r="Y31" s="348"/>
       <c r="Z31" s="348"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="360"/>
       <c r="B32" s="361" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C32" s="360"/>
       <c r="D32" s="360"/>
@@ -16661,7 +16658,7 @@
       <c r="Y32" s="348"/>
       <c r="Z32" s="348"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="347"/>
       <c r="B33" s="347"/>
       <c r="C33" s="347"/>
@@ -16689,7 +16686,7 @@
       <c r="Y33" s="348"/>
       <c r="Z33" s="348"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="347"/>
       <c r="B34" s="347"/>
       <c r="C34" s="347"/>
@@ -16717,7 +16714,7 @@
       <c r="Y34" s="348"/>
       <c r="Z34" s="348"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="347"/>
       <c r="B35" s="347"/>
       <c r="C35" s="347"/>
@@ -16745,7 +16742,7 @@
       <c r="Y35" s="348"/>
       <c r="Z35" s="348"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="347"/>
       <c r="B36" s="347"/>
       <c r="C36" s="347"/>
@@ -16773,7 +16770,7 @@
       <c r="Y36" s="348"/>
       <c r="Z36" s="348"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="347"/>
       <c r="B37" s="347"/>
       <c r="C37" s="347"/>
@@ -16801,7 +16798,7 @@
       <c r="Y37" s="348"/>
       <c r="Z37" s="348"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="347"/>
       <c r="B38" s="347"/>
       <c r="C38" s="347"/>
@@ -16829,7 +16826,7 @@
       <c r="Y38" s="348"/>
       <c r="Z38" s="348"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="347"/>
       <c r="B39" s="347"/>
       <c r="C39" s="347"/>
@@ -16857,7 +16854,7 @@
       <c r="Y39" s="348"/>
       <c r="Z39" s="348"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="347"/>
       <c r="B40" s="347"/>
       <c r="C40" s="347"/>
@@ -16885,7 +16882,7 @@
       <c r="Y40" s="348"/>
       <c r="Z40" s="348"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="347"/>
       <c r="B41" s="347"/>
       <c r="C41" s="347"/>
@@ -16913,7 +16910,7 @@
       <c r="Y41" s="348"/>
       <c r="Z41" s="348"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="347"/>
       <c r="B42" s="347"/>
       <c r="C42" s="347"/>
@@ -16941,7 +16938,7 @@
       <c r="Y42" s="348"/>
       <c r="Z42" s="348"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="348"/>
       <c r="B43" s="348"/>
       <c r="C43" s="348"/>
@@ -16969,7 +16966,7 @@
       <c r="Y43" s="348"/>
       <c r="Z43" s="348"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="348"/>
       <c r="B44" s="348"/>
       <c r="C44" s="348"/>
@@ -16997,7 +16994,7 @@
       <c r="Y44" s="348"/>
       <c r="Z44" s="348"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="348"/>
       <c r="B45" s="348"/>
       <c r="C45" s="348"/>
@@ -17025,7 +17022,7 @@
       <c r="Y45" s="348"/>
       <c r="Z45" s="348"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="348"/>
       <c r="B46" s="348"/>
       <c r="C46" s="348"/>
@@ -17053,7 +17050,7 @@
       <c r="Y46" s="348"/>
       <c r="Z46" s="348"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="348"/>
       <c r="B47" s="348"/>
       <c r="C47" s="348"/>
@@ -17081,7 +17078,7 @@
       <c r="Y47" s="348"/>
       <c r="Z47" s="348"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="348"/>
       <c r="B48" s="348"/>
       <c r="C48" s="348"/>
@@ -17109,7 +17106,7 @@
       <c r="Y48" s="348"/>
       <c r="Z48" s="348"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="348"/>
       <c r="B49" s="348"/>
       <c r="C49" s="348"/>
@@ -17137,7 +17134,7 @@
       <c r="Y49" s="348"/>
       <c r="Z49" s="348"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="348"/>
       <c r="B50" s="348"/>
       <c r="C50" s="348"/>
@@ -17165,7 +17162,7 @@
       <c r="Y50" s="348"/>
       <c r="Z50" s="348"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="348"/>
       <c r="B51" s="348"/>
       <c r="C51" s="348"/>
@@ -17193,7 +17190,7 @@
       <c r="Y51" s="348"/>
       <c r="Z51" s="348"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="348"/>
       <c r="B52" s="348"/>
       <c r="C52" s="348"/>
@@ -17221,7 +17218,7 @@
       <c r="Y52" s="348"/>
       <c r="Z52" s="348"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="348"/>
       <c r="B53" s="348"/>
       <c r="C53" s="348"/>
@@ -17249,7 +17246,7 @@
       <c r="Y53" s="348"/>
       <c r="Z53" s="348"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="348"/>
       <c r="B54" s="348"/>
       <c r="C54" s="348"/>
@@ -17277,7 +17274,7 @@
       <c r="Y54" s="348"/>
       <c r="Z54" s="348"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="348"/>
       <c r="B55" s="348"/>
       <c r="C55" s="348"/>
@@ -17305,7 +17302,7 @@
       <c r="Y55" s="348"/>
       <c r="Z55" s="348"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="348"/>
       <c r="B56" s="348"/>
       <c r="C56" s="348"/>
@@ -17333,7 +17330,7 @@
       <c r="Y56" s="348"/>
       <c r="Z56" s="348"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="348"/>
       <c r="B57" s="348"/>
       <c r="C57" s="348"/>
@@ -17361,7 +17358,7 @@
       <c r="Y57" s="348"/>
       <c r="Z57" s="348"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="348"/>
       <c r="B58" s="348"/>
       <c r="C58" s="348"/>
@@ -17389,7 +17386,7 @@
       <c r="Y58" s="348"/>
       <c r="Z58" s="348"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="348"/>
       <c r="B59" s="348"/>
       <c r="C59" s="348"/>
@@ -17417,7 +17414,7 @@
       <c r="Y59" s="348"/>
       <c r="Z59" s="348"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="348"/>
       <c r="B60" s="348"/>
       <c r="C60" s="348"/>
@@ -17445,7 +17442,7 @@
       <c r="Y60" s="348"/>
       <c r="Z60" s="348"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="348"/>
       <c r="B61" s="348"/>
       <c r="C61" s="348"/>
@@ -17473,7 +17470,7 @@
       <c r="Y61" s="348"/>
       <c r="Z61" s="348"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="348"/>
       <c r="B62" s="348"/>
       <c r="C62" s="348"/>
@@ -17501,7 +17498,7 @@
       <c r="Y62" s="348"/>
       <c r="Z62" s="348"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="348"/>
       <c r="B63" s="348"/>
       <c r="C63" s="348"/>
@@ -17529,7 +17526,7 @@
       <c r="Y63" s="348"/>
       <c r="Z63" s="348"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="348"/>
       <c r="B64" s="348"/>
       <c r="C64" s="348"/>
@@ -17557,7 +17554,7 @@
       <c r="Y64" s="348"/>
       <c r="Z64" s="348"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="348"/>
       <c r="B65" s="348"/>
       <c r="C65" s="348"/>
@@ -17585,7 +17582,7 @@
       <c r="Y65" s="348"/>
       <c r="Z65" s="348"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="348"/>
       <c r="B66" s="348"/>
       <c r="C66" s="348"/>
@@ -17613,7 +17610,7 @@
       <c r="Y66" s="348"/>
       <c r="Z66" s="348"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="348"/>
       <c r="B67" s="348"/>
       <c r="C67" s="348"/>
@@ -17641,7 +17638,7 @@
       <c r="Y67" s="348"/>
       <c r="Z67" s="348"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="348"/>
       <c r="B68" s="348"/>
       <c r="C68" s="348"/>
@@ -17669,7 +17666,7 @@
       <c r="Y68" s="348"/>
       <c r="Z68" s="348"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="348"/>
       <c r="B69" s="348"/>
       <c r="C69" s="348"/>
@@ -17697,7 +17694,7 @@
       <c r="Y69" s="348"/>
       <c r="Z69" s="348"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="348"/>
       <c r="B70" s="348"/>
       <c r="C70" s="348"/>
@@ -17725,7 +17722,7 @@
       <c r="Y70" s="348"/>
       <c r="Z70" s="348"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="348"/>
       <c r="B71" s="348"/>
       <c r="C71" s="348"/>
@@ -17753,7 +17750,7 @@
       <c r="Y71" s="348"/>
       <c r="Z71" s="348"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="348"/>
       <c r="B72" s="348"/>
       <c r="C72" s="348"/>
@@ -17781,7 +17778,7 @@
       <c r="Y72" s="348"/>
       <c r="Z72" s="348"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="348"/>
       <c r="B73" s="348"/>
       <c r="C73" s="348"/>
@@ -17809,7 +17806,7 @@
       <c r="Y73" s="348"/>
       <c r="Z73" s="348"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="348"/>
       <c r="B74" s="348"/>
       <c r="C74" s="348"/>
@@ -17837,7 +17834,7 @@
       <c r="Y74" s="348"/>
       <c r="Z74" s="348"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="348"/>
       <c r="B75" s="348"/>
       <c r="C75" s="348"/>
@@ -17865,7 +17862,7 @@
       <c r="Y75" s="348"/>
       <c r="Z75" s="348"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="348"/>
       <c r="B76" s="348"/>
       <c r="C76" s="348"/>
@@ -17893,7 +17890,7 @@
       <c r="Y76" s="348"/>
       <c r="Z76" s="348"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="348"/>
       <c r="B77" s="348"/>
       <c r="C77" s="348"/>
@@ -17921,7 +17918,7 @@
       <c r="Y77" s="348"/>
       <c r="Z77" s="348"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="348"/>
       <c r="B78" s="348"/>
       <c r="C78" s="348"/>
@@ -17949,7 +17946,7 @@
       <c r="Y78" s="348"/>
       <c r="Z78" s="348"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="348"/>
       <c r="B79" s="348"/>
       <c r="C79" s="348"/>
@@ -17977,7 +17974,7 @@
       <c r="Y79" s="348"/>
       <c r="Z79" s="348"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="348"/>
       <c r="B80" s="348"/>
       <c r="C80" s="348"/>
@@ -18005,7 +18002,7 @@
       <c r="Y80" s="348"/>
       <c r="Z80" s="348"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="348"/>
       <c r="B81" s="348"/>
       <c r="C81" s="348"/>
@@ -18033,7 +18030,7 @@
       <c r="Y81" s="348"/>
       <c r="Z81" s="348"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="348"/>
       <c r="B82" s="348"/>
       <c r="C82" s="348"/>
@@ -18061,7 +18058,7 @@
       <c r="Y82" s="348"/>
       <c r="Z82" s="348"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="348"/>
       <c r="B83" s="348"/>
       <c r="C83" s="348"/>
@@ -18089,7 +18086,7 @@
       <c r="Y83" s="348"/>
       <c r="Z83" s="348"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="348"/>
       <c r="B84" s="348"/>
       <c r="C84" s="348"/>
@@ -18117,7 +18114,7 @@
       <c r="Y84" s="348"/>
       <c r="Z84" s="348"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="348"/>
       <c r="B85" s="348"/>
       <c r="C85" s="348"/>
@@ -18145,7 +18142,7 @@
       <c r="Y85" s="348"/>
       <c r="Z85" s="348"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="348"/>
       <c r="B86" s="348"/>
       <c r="C86" s="348"/>
@@ -18173,7 +18170,7 @@
       <c r="Y86" s="348"/>
       <c r="Z86" s="348"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="348"/>
       <c r="B87" s="348"/>
       <c r="C87" s="348"/>
@@ -18201,7 +18198,7 @@
       <c r="Y87" s="348"/>
       <c r="Z87" s="348"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="348"/>
       <c r="B88" s="348"/>
       <c r="C88" s="348"/>
@@ -18229,7 +18226,7 @@
       <c r="Y88" s="348"/>
       <c r="Z88" s="348"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="348"/>
       <c r="B89" s="348"/>
       <c r="C89" s="348"/>
@@ -18257,7 +18254,7 @@
       <c r="Y89" s="348"/>
       <c r="Z89" s="348"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="348"/>
       <c r="B90" s="348"/>
       <c r="C90" s="348"/>
@@ -18285,7 +18282,7 @@
       <c r="Y90" s="348"/>
       <c r="Z90" s="348"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="348"/>
       <c r="B91" s="348"/>
       <c r="C91" s="348"/>
@@ -18313,7 +18310,7 @@
       <c r="Y91" s="348"/>
       <c r="Z91" s="348"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="348"/>
       <c r="B92" s="348"/>
       <c r="C92" s="348"/>
@@ -18341,7 +18338,7 @@
       <c r="Y92" s="348"/>
       <c r="Z92" s="348"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="348"/>
       <c r="B93" s="348"/>
       <c r="C93" s="348"/>
@@ -18369,7 +18366,7 @@
       <c r="Y93" s="348"/>
       <c r="Z93" s="348"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="348"/>
       <c r="B94" s="348"/>
       <c r="C94" s="348"/>
@@ -18397,7 +18394,7 @@
       <c r="Y94" s="348"/>
       <c r="Z94" s="348"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="348"/>
       <c r="B95" s="348"/>
       <c r="C95" s="348"/>
@@ -18425,7 +18422,7 @@
       <c r="Y95" s="348"/>
       <c r="Z95" s="348"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="348"/>
       <c r="B96" s="348"/>
       <c r="C96" s="348"/>
@@ -18453,7 +18450,7 @@
       <c r="Y96" s="348"/>
       <c r="Z96" s="348"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="348"/>
       <c r="B97" s="348"/>
       <c r="C97" s="348"/>
@@ -18481,7 +18478,7 @@
       <c r="Y97" s="348"/>
       <c r="Z97" s="348"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="348"/>
       <c r="B98" s="348"/>
       <c r="C98" s="348"/>
@@ -18509,7 +18506,7 @@
       <c r="Y98" s="348"/>
       <c r="Z98" s="348"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="348"/>
       <c r="B99" s="348"/>
       <c r="C99" s="348"/>
@@ -18568,22 +18565,22 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="22" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" style="22" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="22"/>
-    <col min="7" max="7" width="42.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="101.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="19.59765625" style="22" customWidth="1"/>
+    <col min="2" max="3" width="27.265625" style="22" customWidth="1"/>
+    <col min="4" max="6" width="9.1328125" style="22"/>
+    <col min="7" max="7" width="42.73046875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="56.73046875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="101.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="24"/>
       <c r="B1" s="25"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>69</v>
       </c>
@@ -18591,54 +18588,54 @@
         <v>184</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="365" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="369" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="365" t="s">
+      <c r="B3" s="369" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="365" t="s">
+      <c r="C3" s="369" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="367" t="s">
+      <c r="D3" s="371" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="367"/>
-      <c r="F3" s="365" t="s">
+      <c r="E3" s="371"/>
+      <c r="F3" s="369" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="365" t="s">
+      <c r="G3" s="369" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="365" t="s">
+      <c r="H3" s="369" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="365" t="s">
+      <c r="I3" s="369" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="366"/>
-      <c r="B4" s="366"/>
-      <c r="C4" s="366"/>
+    <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="370"/>
+      <c r="B4" s="370"/>
+      <c r="C4" s="370"/>
       <c r="D4" s="59" t="s">
         <v>165</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="366"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
     </row>
-    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A5" s="33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>167</v>
@@ -18665,12 +18662,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A6" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C6" s="60">
         <v>2013</v>
@@ -18685,431 +18682,431 @@
         <v>168</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H6" s="60" t="s">
+        <v>544</v>
+      </c>
+      <c r="I6" s="62" t="s">
         <v>545</v>
       </c>
-      <c r="I6" s="62" t="s">
-        <v>546</v>
-      </c>
     </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>551</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>552</v>
       </c>
       <c r="C7" s="60"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H7" s="60"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="163" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="146"/>
       <c r="C10" s="147"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="162"/>
-      <c r="B11" s="368" t="str">
+      <c r="B11" s="365" t="str">
         <f>"Data summary table with data from "&amp;A5</f>
         <v>Data summary table with data from S1</v>
       </c>
-      <c r="C11" s="369"/>
+      <c r="C11" s="366"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="27"/>
-      <c r="B12" s="370" t="s">
+      <c r="B12" s="367" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="371"/>
+      <c r="C12" s="368"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="23"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="145" t="s">
         <v>169</v>
       </c>
       <c r="B14" s="157"/>
       <c r="C14" s="158"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="156" t="s">
+        <v>402</v>
+      </c>
+      <c r="B15" s="153" t="s">
         <v>403</v>
-      </c>
-      <c r="B15" s="153" t="s">
-        <v>404</v>
       </c>
       <c r="C15" s="160"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="154" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B16" s="159" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C16" s="161"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="155"/>
       <c r="B17" s="153" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C17" s="155"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.45">
       <c r="A20" s="149" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="152" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="152" t="s">
+      <c r="C21" s="152" t="s">
         <v>312</v>
       </c>
-      <c r="C21" s="152" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="151" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="151" t="s">
-        <v>314</v>
       </c>
       <c r="B22" s="150"/>
       <c r="C22" s="150"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="148" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="148" t="s">
-        <v>317</v>
       </c>
       <c r="B24" s="148"/>
       <c r="C24" s="148" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="25" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>321</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="25" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>323</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="63" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
-        <v>325</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>328</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="25" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>330</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="25" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>332</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>334</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="25" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>336</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="148" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="148" t="s">
-        <v>338</v>
       </c>
       <c r="B36" s="148"/>
       <c r="C36" s="148" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="63" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
-        <v>340</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="C38" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="C38" s="25" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="25" t="s">
         <v>343</v>
       </c>
+      <c r="B39" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="C39" s="25" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="25" t="s">
         <v>345</v>
       </c>
+      <c r="B40" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>347</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="C40" s="25" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="25" t="s">
         <v>348</v>
       </c>
+      <c r="B41" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>350</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B42" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C42" s="25" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
         <v>353</v>
       </c>
+      <c r="B43" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="C44" s="25" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="25" t="s">
         <v>358</v>
       </c>
+      <c r="B45" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>360</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="C45" s="25" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="25" t="s">
         <v>361</v>
       </c>
+      <c r="B46" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>363</v>
+      </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="C46" s="25" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="25" t="s">
         <v>364</v>
       </c>
+      <c r="B48" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>556</v>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>367</v>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>370</v>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>375</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>373</v>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C52" s="25" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="148" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="148" t="s">
+      <c r="B53" s="148" t="s">
         <v>380</v>
       </c>
-      <c r="B53" s="148" t="s">
+      <c r="C53" s="148" t="s">
         <v>381</v>
-      </c>
-      <c r="C53" s="148" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19125,39 +19122,39 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.59765625" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1328125" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C3" s="223" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -19271,20 +19268,20 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="224" t="s">
         <v>417</v>
       </c>
-      <c r="C5" s="224" t="s">
+      <c r="D5" s="224" t="s">
         <v>418</v>
-      </c>
-      <c r="D5" s="224" t="s">
-        <v>419</v>
       </c>
       <c r="E5" s="223" t="str">
         <f>Regions!A11</f>
@@ -19391,9 +19388,9 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C6" s="223" t="str">
         <f>C5</f>
@@ -19508,9 +19505,9 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C7" s="223" t="str">
         <f>"*"&amp;C5</f>
@@ -19625,225 +19622,225 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="225" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="225" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11" s="226" t="s">
         <v>422</v>
       </c>
+      <c r="B11" s="226" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="226" t="s">
-        <v>423</v>
-      </c>
-      <c r="B11" s="226" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A12" s="227" t="s">
         <v>424</v>
       </c>
+      <c r="B12" s="227" t="s">
+        <v>425</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="227" t="s">
-        <v>425</v>
-      </c>
-      <c r="B12" s="227" t="s">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A13" s="227" t="s">
         <v>426</v>
       </c>
+      <c r="B13" s="227" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="227" t="s">
-        <v>427</v>
-      </c>
-      <c r="B13" s="227" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A14" s="227" t="s">
         <v>428</v>
       </c>
+      <c r="B14" s="227" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="227" t="s">
-        <v>429</v>
-      </c>
-      <c r="B14" s="227" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A15" s="227" t="s">
         <v>430</v>
       </c>
+      <c r="B15" s="227" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="227" t="s">
-        <v>431</v>
-      </c>
-      <c r="B15" s="227" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A16" s="227" t="s">
         <v>432</v>
       </c>
+      <c r="B16" s="227" t="s">
+        <v>433</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="227" t="s">
-        <v>433</v>
-      </c>
-      <c r="B16" s="227" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="227" t="s">
         <v>434</v>
       </c>
+      <c r="B17" s="227" t="s">
+        <v>435</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="227" t="s">
-        <v>435</v>
-      </c>
-      <c r="B17" s="227" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="227" t="s">
         <v>436</v>
       </c>
+      <c r="B18" s="227" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="227" t="s">
-        <v>437</v>
-      </c>
-      <c r="B18" s="227" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="227" t="s">
         <v>438</v>
       </c>
+      <c r="B19" s="227" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="227" t="s">
-        <v>439</v>
-      </c>
-      <c r="B19" s="227" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="227" t="s">
         <v>440</v>
       </c>
+      <c r="B20" s="227" t="s">
+        <v>441</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
-        <v>441</v>
-      </c>
-      <c r="B20" s="227" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="227" t="s">
         <v>442</v>
       </c>
+      <c r="B21" s="227" t="s">
+        <v>443</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="227" t="s">
-        <v>443</v>
-      </c>
-      <c r="B21" s="227" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="227" t="s">
         <v>444</v>
       </c>
+      <c r="B22" s="227" t="s">
+        <v>445</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="227" t="s">
-        <v>445</v>
-      </c>
-      <c r="B22" s="227" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="227" t="s">
         <v>446</v>
       </c>
+      <c r="B23" s="227" t="s">
+        <v>447</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="227" t="s">
-        <v>447</v>
-      </c>
-      <c r="B23" s="227" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="227" t="s">
         <v>448</v>
       </c>
+      <c r="B24" s="227" t="s">
+        <v>449</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="227" t="s">
-        <v>449</v>
-      </c>
-      <c r="B24" s="227" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="227" t="s">
         <v>450</v>
       </c>
+      <c r="B25" s="227" t="s">
+        <v>451</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="227" t="s">
-        <v>451</v>
-      </c>
-      <c r="B25" s="227" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="227" t="s">
         <v>452</v>
       </c>
+      <c r="B26" s="227" t="s">
+        <v>453</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="227" t="s">
-        <v>453</v>
-      </c>
-      <c r="B26" s="227" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="227" t="s">
         <v>454</v>
       </c>
+      <c r="B27" s="227" t="s">
+        <v>455</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="227" t="s">
-        <v>455</v>
-      </c>
-      <c r="B27" s="227" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="227" t="s">
         <v>456</v>
       </c>
+      <c r="B28" s="227" t="s">
+        <v>457</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="227" t="s">
-        <v>457</v>
-      </c>
-      <c r="B28" s="227" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="227" t="s">
         <v>458</v>
       </c>
+      <c r="B29" s="227" t="s">
+        <v>459</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="227" t="s">
-        <v>459</v>
-      </c>
-      <c r="B29" s="227" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="227" t="s">
         <v>460</v>
       </c>
+      <c r="B30" s="227" t="s">
+        <v>461</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="227" t="s">
-        <v>461</v>
-      </c>
-      <c r="B30" s="227" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="227" t="s">
         <v>462</v>
       </c>
+      <c r="B31" s="227" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="227" t="s">
-        <v>463</v>
-      </c>
-      <c r="B31" s="227" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="227" t="s">
         <v>464</v>
       </c>
+      <c r="B32" s="227" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="227" t="s">
-        <v>465</v>
-      </c>
-      <c r="B32" s="227" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="227" t="s">
         <v>466</v>
       </c>
+      <c r="B33" s="227" t="s">
+        <v>467</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="227" t="s">
-        <v>467</v>
-      </c>
-      <c r="B33" s="227" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="227" t="s">
         <v>468</v>
       </c>
+      <c r="B34" s="227" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="227" t="s">
-        <v>469</v>
-      </c>
-      <c r="B34" s="227" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="227" t="s">
         <v>470</v>
       </c>
+      <c r="B35" s="227" t="s">
+        <v>471</v>
+      </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="227" t="s">
-        <v>471</v>
-      </c>
-      <c r="B35" s="227" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="227" t="s">
         <v>472</v>
       </c>
+      <c r="B36" s="227" t="s">
+        <v>473</v>
+      </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="227" t="s">
-        <v>473</v>
-      </c>
-      <c r="B36" s="227" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="228" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="228" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -19890,38 +19887,38 @@
   <dimension ref="A1:AY122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O47" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomRight" activeCell="W68" sqref="W68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26" style="28" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="33" width="11.140625" style="28" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="231" customWidth="1"/>
-    <col min="35" max="36" width="11.140625" style="28" customWidth="1"/>
-    <col min="37" max="37" width="9.85546875" style="28" customWidth="1"/>
-    <col min="38" max="40" width="8.28515625" style="28" customWidth="1"/>
-    <col min="41" max="41" width="69.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.42578125" style="28" customWidth="1"/>
-    <col min="43" max="44" width="15.5703125" style="28" customWidth="1"/>
-    <col min="45" max="45" width="21.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="64.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="9.140625" style="28"/>
-    <col min="50" max="50" width="10.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="28"/>
+    <col min="2" max="2" width="64.73046875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.86328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="33" width="11.1328125" style="28" customWidth="1"/>
+    <col min="34" max="34" width="11.1328125" style="231" customWidth="1"/>
+    <col min="35" max="36" width="11.1328125" style="28" customWidth="1"/>
+    <col min="37" max="37" width="9.86328125" style="28" customWidth="1"/>
+    <col min="38" max="40" width="8.265625" style="28" customWidth="1"/>
+    <col min="41" max="41" width="69.86328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.3984375" style="28" customWidth="1"/>
+    <col min="43" max="44" width="15.59765625" style="28" customWidth="1"/>
+    <col min="45" max="45" width="21.265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="64.265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="9.1328125" style="28"/>
+    <col min="50" max="50" width="10.265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.1328125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1" s="51"/>
       <c r="F1" s="29"/>
@@ -19943,7 +19940,7 @@
       <c r="V1" s="29"/>
       <c r="W1" s="29"/>
     </row>
-    <row r="2" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="71" t="s">
         <v>80</v>
       </c>
@@ -19954,27 +19951,27 @@
         <v>102</v>
       </c>
       <c r="D2" s="180" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E2" s="71" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="372" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G2" s="372"/>
       <c r="H2" s="372"/>
       <c r="I2" s="372"/>
       <c r="J2" s="372"/>
       <c r="K2" s="372" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L2" s="372"/>
       <c r="M2" s="372"/>
       <c r="N2" s="372"/>
       <c r="O2" s="372"/>
       <c r="P2" s="372" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q2" s="372"/>
       <c r="R2" s="372"/>
@@ -20025,7 +20022,7 @@
       <c r="AQ2" s="30"/>
       <c r="AR2" s="30"/>
     </row>
-    <row r="3" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="73"/>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -20135,7 +20132,7 @@
       <c r="AQ3" s="30"/>
       <c r="AR3" s="30"/>
     </row>
-    <row r="4" spans="1:51" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="63" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="63" t="s">
         <v>96</v>
       </c>
@@ -20151,9 +20148,9 @@
       <c r="T4" s="214"/>
       <c r="AH4" s="234"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A5" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>75</v>
@@ -20258,9 +20255,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A6" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>71</v>
@@ -20383,9 +20380,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A7" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>76</v>
@@ -20490,9 +20487,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A8" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>72</v>
@@ -20615,9 +20612,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A9" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>73</v>
@@ -20741,9 +20738,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A10" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>74</v>
@@ -20874,9 +20871,9 @@
         <v>Add. INV: Chimney and water tank</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A11" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>81</v>
@@ -20982,9 +20979,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A12" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>103</v>
@@ -21105,9 +21102,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A13" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>77</v>
@@ -21219,9 +21216,9 @@
         <v>Add. INV: Biomass storage</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A14" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>65</v>
@@ -21358,7 +21355,7 @@
       <c r="AX14" s="33"/>
       <c r="AY14" s="33"/>
     </row>
-    <row r="15" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="42" t="s">
         <v>97</v>
       </c>
@@ -21397,9 +21394,9 @@
       <c r="AJ15" s="44"/>
       <c r="AK15" s="45"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A16" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>154</v>
@@ -21517,7 +21514,7 @@
       <c r="AX16" s="33"/>
       <c r="AY16" s="33"/>
     </row>
-    <row r="17" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="42" t="s">
         <v>98</v>
       </c>
@@ -21554,9 +21551,9 @@
       <c r="AJ17" s="46"/>
       <c r="AK17" s="47"/>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A18" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>66</v>
@@ -21667,9 +21664,9 @@
       </c>
       <c r="AP18" s="37"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A19" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>82</v>
@@ -21797,9 +21794,9 @@
       </c>
       <c r="AP19" s="37"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A20" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>83</v>
@@ -21909,9 +21906,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A21" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>67</v>
@@ -22036,9 +22033,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A22" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>95</v>
@@ -22166,9 +22163,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A23" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>84</v>
@@ -22284,9 +22281,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A24" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>107</v>
@@ -22417,9 +22414,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A25" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>181</v>
@@ -22544,9 +22541,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A26" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>85</v>
@@ -22671,9 +22668,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A27" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>92</v>
@@ -22735,9 +22732,9 @@
         <f t="shared" si="15"/>
         <v>1.0980392156862744</v>
       </c>
-      <c r="U27" s="312" t="str">
+      <c r="U27" s="312">
         <f>'JRC data'!AX30</f>
-        <v>15-20</v>
+        <v>20</v>
       </c>
       <c r="V27" s="312"/>
       <c r="W27" s="292">
@@ -22809,7 +22806,7 @@
       <c r="AX27" s="33"/>
       <c r="AY27" s="33"/>
     </row>
-    <row r="28" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="42" t="s">
         <v>99</v>
       </c>
@@ -22845,9 +22842,9 @@
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>183</v>
@@ -22966,7 +22963,7 @@
       <c r="AX29" s="33"/>
       <c r="AY29" s="33"/>
     </row>
-    <row r="30" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="42" t="s">
         <v>100</v>
       </c>
@@ -23002,9 +22999,9 @@
       <c r="AI30" s="44"/>
       <c r="AJ30" s="44"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>78</v>
@@ -23095,9 +23092,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A32" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>93</v>
@@ -23200,9 +23197,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A33" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>94</v>
@@ -23307,9 +23304,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A34" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>170</v>
@@ -23414,9 +23411,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A35" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>171</v>
@@ -23534,7 +23531,7 @@
       <c r="AX35" s="33"/>
       <c r="AY35" s="33"/>
     </row>
-    <row r="36" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="42" t="s">
         <v>101</v>
       </c>
@@ -23570,9 +23567,9 @@
       <c r="AI36" s="43"/>
       <c r="AJ36" s="43"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A37" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>180</v>
@@ -23677,9 +23674,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A38" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>179</v>
@@ -23797,7 +23794,7 @@
       <c r="AX38" s="33"/>
       <c r="AY38" s="33"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.45">
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
@@ -23829,7 +23826,7 @@
       <c r="AI39" s="31"/>
       <c r="AJ39" s="31"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.45">
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
@@ -23861,12 +23858,12 @@
       <c r="AI40" s="31"/>
       <c r="AJ40" s="31"/>
     </row>
-    <row r="41" spans="1:51" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A41" s="64" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:51" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" ht="21" x14ac:dyDescent="0.45">
       <c r="A42" s="65" t="str">
         <f>Legend!A23</f>
         <v>Commercial Services</v>
@@ -23906,7 +23903,7 @@
       <c r="AI42" s="31"/>
       <c r="AJ42" s="31"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A43" s="52" t="s">
         <v>110</v>
       </c>
@@ -23945,7 +23942,7 @@
       <c r="AX43" s="31"/>
       <c r="AY43" s="31"/>
     </row>
-    <row r="44" spans="1:51" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="54" t="s">
         <v>112</v>
       </c>
@@ -23956,7 +23953,7 @@
         <v>113</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E44" s="54" t="s">
         <v>114</v>
@@ -24079,7 +24076,7 @@
         <v>116</v>
       </c>
       <c r="AL44" s="55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AM44" s="55" t="s">
         <v>165</v>
@@ -24088,7 +24085,7 @@
         <v>117</v>
       </c>
       <c r="AR44" s="54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AS44" s="56" t="s">
         <v>112</v>
@@ -24112,7 +24109,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:51" s="80" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" s="80" customFormat="1" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A45" s="77" t="s">
         <v>182</v>
       </c>
@@ -24123,7 +24120,7 @@
         <v>133</v>
       </c>
       <c r="D45" s="77" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E45" s="77" t="s">
         <v>134</v>
@@ -24184,7 +24181,7 @@
         <v>126</v>
       </c>
       <c r="AR45" s="79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AS45" s="77" t="s">
         <v>127</v>
@@ -24204,7 +24201,7 @@
       </c>
       <c r="AY45" s="77"/>
     </row>
-    <row r="46" spans="1:51" s="80" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" s="80" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
       <c r="A46" s="77" t="s">
         <v>124</v>
       </c>
@@ -24213,21 +24210,21 @@
       <c r="D46" s="77"/>
       <c r="E46" s="77"/>
       <c r="F46" s="77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G46" s="77"/>
       <c r="H46" s="77"/>
       <c r="I46" s="77"/>
       <c r="J46" s="77"/>
       <c r="K46" s="77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L46" s="77"/>
       <c r="M46" s="77"/>
       <c r="N46" s="77"/>
       <c r="O46" s="77"/>
       <c r="P46" s="77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q46" s="77"/>
       <c r="R46" s="77"/>
@@ -24282,7 +24279,7 @@
       <c r="AX46" s="77"/>
       <c r="AY46" s="77"/>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A47" s="63" t="s">
         <v>96</v>
       </c>
@@ -24361,7 +24358,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A48" s="28" t="str">
         <f>IF(SRV_TH!AM5="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A5)</f>
         <v>S-SH-CS_OIL_N1</v>
@@ -24528,7 +24525,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A49" s="28" t="str">
         <f>IF(SRV_TH!AM6="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A6)</f>
         <v>S-SH-CS_OIL_N2</v>
@@ -24695,7 +24692,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A50" s="28" t="str">
         <f>IF(SRV_TH!AM7="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A7)</f>
         <v>S-SH-CS_GAS_N1</v>
@@ -24862,7 +24859,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A51" s="28" t="str">
         <f>IF(SRV_TH!AM8="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A8)</f>
         <v>S-SH-CS_GAS_N2</v>
@@ -25029,7 +25026,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A52" s="28" t="str">
         <f>IF(SRV_TH!AM9="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A9)</f>
         <v>S-SH-CS_GAS_N3</v>
@@ -25196,7 +25193,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A53" s="28" t="str">
         <f>IF(SRV_TH!AM10="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"-"&amp;SRV_TH!$A10)</f>
         <v>S-SH-CS-GAS_N4</v>
@@ -25363,7 +25360,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A54" s="28" t="str">
         <f>IF(SRV_TH!AM11="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A11)</f>
         <v>S-SH-CS_LPG_N1</v>
@@ -25530,7 +25527,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A55" s="28" t="str">
         <f>IF(SRV_TH!AM12="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A12)</f>
         <v>S-SH-CS_LPG_N2</v>
@@ -25697,7 +25694,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A56" s="28" t="str">
         <f>IF(SRV_TH!AM13="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A13)</f>
         <v>S-SH-CS_BIO_N1</v>
@@ -25865,7 +25862,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A57" s="33" t="str">
         <f>IF(SRV_TH!AM14="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A14)</f>
         <v>S-SH-CS_BIO_N2</v>
@@ -26035,7 +26032,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A58" s="42" t="s">
         <v>97</v>
       </c>
@@ -26117,7 +26114,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A59" s="33" t="str">
         <f>IF(SRV_TH!AM16="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A16)</f>
         <v>S-SH-CS_ELC_N1</v>
@@ -26287,7 +26284,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A60" s="42" t="s">
         <v>98</v>
       </c>
@@ -26369,7 +26366,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A61" s="28" t="str">
         <f>IF(SRV_TH!AM18="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A18)</f>
         <v>S-SH-CS_ELC_N2</v>
@@ -26540,7 +26537,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A62" s="28" t="str">
         <f>IF(SRV_TH!AM19="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A19)</f>
         <v>S-SH-CS_ELC_N3</v>
@@ -26711,7 +26708,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A63" s="28" t="str">
         <f>IF(SRV_TH!AM20="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A20)</f>
         <v>S-SH-CS_ELC_N4</v>
@@ -26882,7 +26879,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A64" s="28" t="str">
         <f>IF(SRV_TH!AM21="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A21)</f>
         <v>S-SH-CS_ELC_N5</v>
@@ -27053,7 +27050,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A65" s="28" t="str">
         <f>IF(SRV_TH!AM22="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A22)</f>
         <v>S-SH-CS_ELC_N6</v>
@@ -27224,7 +27221,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A66" s="28" t="str">
         <f>IF(SRV_TH!AM23="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A23)</f>
         <v>S-SH-CS_ELC_N7</v>
@@ -27395,7 +27392,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A67" s="28" t="str">
         <f>IF(SRV_TH!AM24="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A24)</f>
         <v>S-SH-CS_ELC_N8</v>
@@ -27566,7 +27563,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A68" s="28" t="str">
         <f>IF(SRV_TH!AM25="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A25)</f>
         <v>S-SH-CS_ELC_N9</v>
@@ -27737,7 +27734,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A69" s="28" t="str">
         <f>IF(SRV_TH!AM26="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A26)</f>
         <v>S-SH-CS_GAS_N5</v>
@@ -27908,7 +27905,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A70" s="33" t="str">
         <f>IF(SRV_TH!AM27="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A27)</f>
         <v>S-SH-CS_GAS_N6</v>
@@ -27989,9 +27986,9 @@
         <f>IF($A70="*","",IF(SRV_TH!T27=0,"",SRV_TH!T27))</f>
         <v>1.0980392156862744</v>
       </c>
-      <c r="U70" s="181" t="str">
+      <c r="U70" s="181">
         <f>IF($A70="*","",IF(SRV_TH!U27=0,"",SRV_TH!U27))</f>
-        <v>15-20</v>
+        <v>20</v>
       </c>
       <c r="V70" s="181" t="str">
         <f>IF($A70="*","",IF(SRV_TH!V27=0,"",SRV_TH!V27))</f>
@@ -28081,7 +28078,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A71" s="42" t="s">
         <v>99</v>
       </c>
@@ -28163,7 +28160,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A72" s="33" t="str">
         <f>IF(SRV_TH!AM29="","*","S-SH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A29)</f>
         <v>S-SH-CS_HET_N1</v>
@@ -28333,7 +28330,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A73" s="42" t="s">
         <v>100</v>
       </c>
@@ -28415,7 +28412,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A74" s="28" t="str">
         <f>IF(SRV_TH!AM31="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A31)</f>
         <v>S-WH-CS_ELC_N1</v>
@@ -28582,7 +28579,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A75" s="28" t="str">
         <f>IF(SRV_TH!AM32="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A32)</f>
         <v>S-WH-CS_SOL_N1</v>
@@ -28749,7 +28746,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A76" s="28" t="str">
         <f>IF(SRV_TH!AM33="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A33)</f>
         <v>S-WH-CS_GAS_N1</v>
@@ -28916,7 +28913,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A77" s="28" t="str">
         <f>IF(SRV_TH!AM34="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A34)</f>
         <v>S-WH-CS_BIO_N1</v>
@@ -29083,7 +29080,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A78" s="33" t="str">
         <f>IF(SRV_TH!AM35="","*","S-WH-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A35)</f>
         <v>S-WH-CS_LPG_N1</v>
@@ -29253,7 +29250,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A79" s="42" t="s">
         <v>101</v>
       </c>
@@ -29335,7 +29332,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A80" s="28" t="str">
         <f>IF(SRV_TH!AM37="","*","S-SC-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A37)</f>
         <v>S-SC-CS_ELC_N1</v>
@@ -29502,7 +29499,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A81" s="33" t="str">
         <f>IF(SRV_TH!AM38="","*","S-SC-"&amp;SRV_TH!$B$42&amp;"_"&amp;SRV_TH!$A38)</f>
         <v>S-SC-CS_ELC_N2</v>
@@ -29669,7 +29666,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.45">
       <c r="F82" s="216"/>
       <c r="G82" s="216"/>
       <c r="H82" s="216"/>
@@ -29701,7 +29698,7 @@
       <c r="AI82" s="31"/>
       <c r="AJ82" s="31"/>
     </row>
-    <row r="83" spans="1:51" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:51" ht="21" x14ac:dyDescent="0.45">
       <c r="A83" s="65" t="str">
         <f>Legend!A24</f>
         <v>Public Services</v>
@@ -29741,7 +29738,7 @@
       <c r="AI83" s="31"/>
       <c r="AJ83" s="31"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A84" s="52" t="s">
         <v>110</v>
       </c>
@@ -29781,7 +29778,7 @@
       <c r="AX84" s="31"/>
       <c r="AY84" s="31"/>
     </row>
-    <row r="85" spans="1:51" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:51" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="54" t="s">
         <v>112</v>
       </c>
@@ -29792,7 +29789,7 @@
         <v>113</v>
       </c>
       <c r="D85" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E85" s="54" t="s">
         <v>114</v>
@@ -29915,7 +29912,7 @@
         <v>116</v>
       </c>
       <c r="AL85" s="55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AM85" s="55" t="s">
         <v>165</v>
@@ -29924,7 +29921,7 @@
         <v>117</v>
       </c>
       <c r="AR85" s="56" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AS85" s="56" t="s">
         <v>112</v>
@@ -29948,7 +29945,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:51" s="80" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:51" s="80" customFormat="1" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A86" s="77" t="s">
         <v>182</v>
       </c>
@@ -29959,7 +29956,7 @@
         <v>133</v>
       </c>
       <c r="D86" s="77" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E86" s="77" t="s">
         <v>134</v>
@@ -30020,7 +30017,7 @@
         <v>126</v>
       </c>
       <c r="AR86" s="77" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AS86" s="77" t="s">
         <v>127</v>
@@ -30040,7 +30037,7 @@
       </c>
       <c r="AY86" s="77"/>
     </row>
-    <row r="87" spans="1:51" s="80" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:51" s="80" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
       <c r="A87" s="77" t="s">
         <v>124</v>
       </c>
@@ -30049,21 +30046,21 @@
       <c r="D87" s="77"/>
       <c r="E87" s="77"/>
       <c r="F87" s="77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G87" s="221"/>
       <c r="H87" s="221"/>
       <c r="I87" s="221"/>
       <c r="J87" s="221"/>
       <c r="K87" s="77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L87" s="221"/>
       <c r="M87" s="221"/>
       <c r="N87" s="221"/>
       <c r="O87" s="221"/>
       <c r="P87" s="77" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q87" s="221"/>
       <c r="R87" s="221"/>
@@ -30118,7 +30115,7 @@
       <c r="AX87" s="77"/>
       <c r="AY87" s="77"/>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A88" s="63" t="s">
         <v>96</v>
       </c>
@@ -30197,7 +30194,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A89" s="28" t="str">
         <f>IF(SRV_TH!AN5="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A5)</f>
         <v>S-SH-PU_OIL_N1</v>
@@ -30364,7 +30361,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A90" s="28" t="str">
         <f>IF(SRV_TH!AN6="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A6)</f>
         <v>S-SH-PU_OIL_N2</v>
@@ -30531,7 +30528,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A91" s="28" t="str">
         <f>IF(SRV_TH!AN7="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A7)</f>
         <v>S-SH-PU_GAS_N1</v>
@@ -30698,7 +30695,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A92" s="28" t="str">
         <f>IF(SRV_TH!AN8="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A8)</f>
         <v>S-SH-PU_GAS_N2</v>
@@ -30865,7 +30862,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A93" s="28" t="str">
         <f>IF(SRV_TH!AN9="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A9)</f>
         <v>S-SH-PU_GAS_N3</v>
@@ -31032,7 +31029,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A94" s="28" t="str">
         <f>IF(SRV_TH!AN10="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A10)</f>
         <v>S-SH-PU_GAS_N4</v>
@@ -31199,7 +31196,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A95" s="28" t="str">
         <f>IF(SRV_TH!AN11="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A11)</f>
         <v>S-SH-PU_LPG_N1</v>
@@ -31366,7 +31363,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A96" s="28" t="str">
         <f>IF(SRV_TH!AN12="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A12)</f>
         <v>S-SH-PU_LPG_N2</v>
@@ -31533,7 +31530,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A97" s="28" t="str">
         <f>IF(SRV_TH!AN13="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A13)</f>
         <v>S-SH-PU_BIO_N1</v>
@@ -31701,7 +31698,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A98" s="33" t="str">
         <f>IF(SRV_TH!AN14="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A14)</f>
         <v>S-SH-PU_BIO_N2</v>
@@ -31871,7 +31868,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A99" s="42" t="s">
         <v>97</v>
       </c>
@@ -31953,7 +31950,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A100" s="33" t="str">
         <f>IF(SRV_TH!AN16="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A16)</f>
         <v>S-SH-PU_ELC_N1</v>
@@ -32123,7 +32120,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A101" s="42" t="s">
         <v>98</v>
       </c>
@@ -32205,7 +32202,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A102" s="28" t="str">
         <f>IF(SRV_TH!AN18="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A18)</f>
         <v>S-SH-PU_ELC_N2</v>
@@ -32376,7 +32373,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A103" s="28" t="str">
         <f>IF(SRV_TH!AN19="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A19)</f>
         <v>S-SH-PU_ELC_N3</v>
@@ -32547,7 +32544,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A104" s="28" t="str">
         <f>IF(SRV_TH!AN20="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A20)</f>
         <v>S-SH-PU_ELC_N4</v>
@@ -32718,7 +32715,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A105" s="28" t="str">
         <f>IF(SRV_TH!AN21="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A21)</f>
         <v>S-SH-PU_ELC_N5</v>
@@ -32889,7 +32886,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A106" s="28" t="str">
         <f>IF(SRV_TH!AN22="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A22)</f>
         <v>S-SH-PU_ELC_N6</v>
@@ -33060,7 +33057,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A107" s="28" t="str">
         <f>IF(SRV_TH!AN23="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A23)</f>
         <v>S-SH-PU_ELC_N7</v>
@@ -33231,7 +33228,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A108" s="28" t="str">
         <f>IF(SRV_TH!AN24="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A24)</f>
         <v>S-SH-PU_ELC_N8</v>
@@ -33402,7 +33399,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A109" s="28" t="str">
         <f>IF(SRV_TH!AN25="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A25)</f>
         <v>S-SH-PU_ELC_N9</v>
@@ -33573,7 +33570,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A110" s="28" t="str">
         <f>IF(SRV_TH!AN26="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A26)</f>
         <v>S-SH-PU_GAS_N5</v>
@@ -33744,7 +33741,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A111" s="33" t="str">
         <f>IF(SRV_TH!AN27="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A27)</f>
         <v>S-SH-PU_GAS_N6</v>
@@ -33825,9 +33822,9 @@
         <f>IF($A111="*","",IF(SRV_TH!T27=0,"",SRV_TH!T27))</f>
         <v>1.0980392156862744</v>
       </c>
-      <c r="U111" s="181" t="str">
+      <c r="U111" s="181">
         <f>IF($A111="*","",IF(SRV_TH!U27=0,"",SRV_TH!U27))</f>
-        <v>15-20</v>
+        <v>20</v>
       </c>
       <c r="V111" s="181" t="str">
         <f>IF($A111="*","",IF(SRV_TH!V27=0,"",SRV_TH!V27))</f>
@@ -33917,7 +33914,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A112" s="42" t="s">
         <v>99</v>
       </c>
@@ -33999,7 +33996,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A113" s="33" t="str">
         <f>IF(SRV_TH!AN29="","*","S-SH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A29)</f>
         <v>S-SH-PU_HET_N1</v>
@@ -34169,7 +34166,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A114" s="42" t="s">
         <v>100</v>
       </c>
@@ -34251,7 +34248,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A115" s="28" t="str">
         <f>IF(SRV_TH!AN31="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A31)</f>
         <v>S-WH-PU_ELC_N1</v>
@@ -34418,7 +34415,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A116" s="28" t="str">
         <f>IF(SRV_TH!AN32="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A32)</f>
         <v>S-WH-PU_SOL_N1</v>
@@ -34585,7 +34582,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A117" s="28" t="str">
         <f>IF(SRV_TH!AN33="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A33)</f>
         <v>S-WH-PU_GAS_N1</v>
@@ -34752,7 +34749,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A118" s="28" t="str">
         <f>IF(SRV_TH!AN34="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A34)</f>
         <v>S-WH-PU_BIO_N1</v>
@@ -34919,7 +34916,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A119" s="33" t="str">
         <f>IF(SRV_TH!AN35="","*","S-WH-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A35)</f>
         <v>S-WH-PU_LPG_N1</v>
@@ -35089,7 +35086,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A120" s="42" t="s">
         <v>101</v>
       </c>
@@ -35171,7 +35168,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A121" s="28" t="str">
         <f>IF(SRV_TH!AN37="","*","S-SC-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A37)</f>
         <v>S-SC-PU_ELC_N1</v>
@@ -35338,7 +35335,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A122" s="33" t="str">
         <f>IF(SRV_TH!AN38="","*","S-SC-"&amp;SRV_TH!$B$83&amp;"_"&amp;SRV_TH!$A38)</f>
         <v>S-SC-PU_ELC_N2</v>
@@ -35534,31 +35531,31 @@
       <selection activeCell="F7" sqref="F7:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="245" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="245" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" style="245" customWidth="1"/>
-    <col min="5" max="13" width="10.42578125" style="245" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="245" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="245" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="245" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" style="245" customWidth="1"/>
+    <col min="2" max="2" width="45.3984375" style="245" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.59765625" style="245" customWidth="1"/>
+    <col min="5" max="13" width="10.3984375" style="245" customWidth="1"/>
+    <col min="14" max="14" width="3.73046875" style="245" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" style="245" customWidth="1"/>
+    <col min="16" max="16" width="10.73046875" style="245" customWidth="1"/>
     <col min="17" max="17" width="16" style="245" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="44" style="245" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.7109375" style="245" customWidth="1"/>
-    <col min="24" max="26" width="9.85546875" style="245" customWidth="1"/>
-    <col min="27" max="29" width="10.7109375" style="245" customWidth="1"/>
-    <col min="30" max="30" width="34.140625" style="245" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="245" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="245"/>
+    <col min="19" max="23" width="10.73046875" style="245" customWidth="1"/>
+    <col min="24" max="26" width="9.86328125" style="245" customWidth="1"/>
+    <col min="27" max="29" width="10.73046875" style="245" customWidth="1"/>
+    <col min="30" max="30" width="34.1328125" style="245" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.3984375" style="245" customWidth="1"/>
+    <col min="32" max="16384" width="9.1328125" style="245"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="52" t="s">
         <v>110</v>
       </c>
@@ -35574,13 +35571,13 @@
         <v>111</v>
       </c>
       <c r="Y2" s="261" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AD2" s="277" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="54" t="s">
         <v>112</v>
       </c>
@@ -35597,22 +35594,22 @@
         <v>115</v>
       </c>
       <c r="F3" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="H3" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="I3" s="54" t="s">
         <v>481</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>482</v>
       </c>
       <c r="J3" s="242" t="s">
         <v>140</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L3" s="54" t="s">
         <v>116</v>
@@ -35624,7 +35621,7 @@
         <v>117</v>
       </c>
       <c r="P3" s="54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q3" s="54" t="s">
         <v>112</v>
@@ -35648,32 +35645,32 @@
         <v>123</v>
       </c>
       <c r="Y3" s="373" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Z3" s="373"/>
       <c r="AA3" s="257" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AD3" s="267" t="s">
         <v>60</v>
       </c>
       <c r="AE3" s="274" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF3" s="268" t="s">
+        <v>482</v>
+      </c>
+      <c r="AG3" s="268" t="s">
         <v>483</v>
       </c>
-      <c r="AG3" s="268" t="s">
+      <c r="AH3" s="268" t="s">
         <v>484</v>
       </c>
-      <c r="AH3" s="268" t="s">
+      <c r="AI3" s="268" t="s">
         <v>485</v>
       </c>
-      <c r="AI3" s="268" t="s">
-        <v>486</v>
-      </c>
     </row>
-    <row r="4" spans="1:35" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A4" s="243" t="s">
         <v>182</v>
       </c>
@@ -35690,7 +35687,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="243" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G4" s="243"/>
       <c r="H4" s="243"/>
@@ -35705,13 +35702,13 @@
         <v>152</v>
       </c>
       <c r="M4" s="243" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O4" s="77" t="s">
         <v>126</v>
       </c>
       <c r="P4" s="79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="77" t="s">
         <v>127</v>
@@ -35731,13 +35728,13 @@
       </c>
       <c r="W4" s="77"/>
       <c r="Y4" s="258" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z4" s="259" t="s">
         <v>490</v>
       </c>
-      <c r="Z4" s="259" t="s">
+      <c r="AA4" s="258" t="s">
         <v>491</v>
-      </c>
-      <c r="AA4" s="258" t="s">
-        <v>492</v>
       </c>
       <c r="AD4" s="259"/>
       <c r="AE4" s="259"/>
@@ -35748,7 +35745,7 @@
       <c r="AH4" s="374"/>
       <c r="AI4" s="374"/>
     </row>
-    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="244" t="s">
         <v>109</v>
       </c>
@@ -35765,13 +35762,13 @@
       <c r="H5" s="244"/>
       <c r="I5" s="244"/>
       <c r="J5" s="244" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K5" s="244" t="s">
         <v>139</v>
       </c>
       <c r="L5" s="244" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M5" s="244" t="s">
         <v>174</v>
@@ -35799,7 +35796,7 @@
       <c r="AH5" s="270"/>
       <c r="AI5" s="270"/>
     </row>
-    <row r="6" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="253" t="str">
         <f>O6</f>
         <v>*Cooking - Commercial Services</v>
@@ -35822,7 +35819,7 @@
       <c r="AH6" s="245"/>
       <c r="AI6" s="245"/>
     </row>
-    <row r="7" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="248" t="str">
         <f t="shared" ref="A7:B9" si="0">Q7</f>
         <v>S-CK-CS_ELC_N1</v>
@@ -35868,7 +35865,7 @@
       </c>
       <c r="N7" s="245"/>
       <c r="O7" s="248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P7" s="230" t="str">
         <f>IF($Q7="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -35883,15 +35880,15 @@
         <v>Commercial Services Cooking - Electricity - New</v>
       </c>
       <c r="S7" s="248" t="s">
+        <v>500</v>
+      </c>
+      <c r="T7" s="248" t="s">
         <v>501</v>
-      </c>
-      <c r="T7" s="248" t="s">
-        <v>502</v>
       </c>
       <c r="U7" s="248"/>
       <c r="V7" s="248"/>
       <c r="W7" s="248" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y7" s="256">
         <v>15</v>
@@ -35905,10 +35902,10 @@
         <v>3727.5</v>
       </c>
       <c r="AD7" s="245" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AE7" s="245" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF7" s="272">
         <v>175</v>
@@ -35923,7 +35920,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="248" t="str">
         <f t="shared" si="0"/>
         <v>S-CK-CS_GAS_N1</v>
@@ -35969,7 +35966,7 @@
       </c>
       <c r="N8" s="245"/>
       <c r="O8" s="248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P8" s="230" t="str">
         <f>IF($Q8="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -35984,15 +35981,15 @@
         <v>Commercial Services Cooking - Natural Gas - New</v>
       </c>
       <c r="S8" s="248" t="s">
+        <v>500</v>
+      </c>
+      <c r="T8" s="248" t="s">
         <v>501</v>
-      </c>
-      <c r="T8" s="248" t="s">
-        <v>502</v>
       </c>
       <c r="U8" s="248"/>
       <c r="V8" s="248"/>
       <c r="W8" s="248" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y8" s="256">
         <v>15</v>
@@ -36007,7 +36004,7 @@
       </c>
       <c r="AD8" s="245"/>
       <c r="AE8" s="245" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF8" s="272">
         <v>175</v>
@@ -36022,7 +36019,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="248" t="str">
         <f t="shared" si="0"/>
         <v>S-CK-CS_LPG_N1</v>
@@ -36068,7 +36065,7 @@
       </c>
       <c r="N9" s="245"/>
       <c r="O9" s="248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P9" s="230" t="str">
         <f>IF($Q9="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -36083,15 +36080,15 @@
         <v>Commercial Services Cooking - LPG - New</v>
       </c>
       <c r="S9" s="248" t="s">
+        <v>500</v>
+      </c>
+      <c r="T9" s="248" t="s">
         <v>501</v>
-      </c>
-      <c r="T9" s="248" t="s">
-        <v>502</v>
       </c>
       <c r="U9" s="248"/>
       <c r="V9" s="248"/>
       <c r="W9" s="248" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y9" s="256">
         <v>15</v>
@@ -36106,7 +36103,7 @@
       </c>
       <c r="AD9" s="271"/>
       <c r="AE9" s="271" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF9" s="273">
         <v>175</v>
@@ -36121,7 +36118,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="253" t="str">
         <f>O10</f>
         <v>*Cooking - Public Services</v>
@@ -36142,7 +36139,7 @@
       <c r="AH10" s="245"/>
       <c r="AI10" s="245"/>
     </row>
-    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="248" t="str">
         <f t="shared" ref="A11:B13" si="1">Q11</f>
         <v>S-CK-CS_ELC_N1</v>
@@ -36187,7 +36184,7 @@
         <v>2019</v>
       </c>
       <c r="O11" s="248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P11" s="230" t="str">
         <f>IF($Q11="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -36202,15 +36199,15 @@
         <v>Public Services Cooking - Electricity - New</v>
       </c>
       <c r="S11" s="248" t="s">
+        <v>500</v>
+      </c>
+      <c r="T11" s="248" t="s">
         <v>501</v>
-      </c>
-      <c r="T11" s="248" t="s">
-        <v>502</v>
       </c>
       <c r="U11" s="248"/>
       <c r="V11" s="248"/>
       <c r="W11" s="248" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y11" s="256">
         <f>Y7</f>
@@ -36225,10 +36222,10 @@
         <v>3727.5</v>
       </c>
       <c r="AD11" s="261" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A12" s="248" t="str">
         <f t="shared" si="1"/>
         <v>S-CK-CS_GAS_N1</v>
@@ -36273,7 +36270,7 @@
         <v>2019</v>
       </c>
       <c r="O12" s="248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P12" s="230" t="str">
         <f>IF($Q12="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -36288,13 +36285,13 @@
         <v>Public Services Cooking - Natural Gas - New</v>
       </c>
       <c r="S12" s="248" t="s">
+        <v>500</v>
+      </c>
+      <c r="T12" s="248" t="s">
         <v>501</v>
       </c>
-      <c r="T12" s="248" t="s">
+      <c r="W12" s="248" t="s">
         <v>502</v>
-      </c>
-      <c r="W12" s="248" t="s">
-        <v>503</v>
       </c>
       <c r="Y12" s="256">
         <f t="shared" ref="Y12:AA12" si="4">Y8</f>
@@ -36309,13 +36306,13 @@
         <v>2625</v>
       </c>
       <c r="AD12" s="245" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE12" s="276" t="s">
         <v>493</v>
       </c>
-      <c r="AE12" s="276" t="s">
-        <v>494</v>
-      </c>
     </row>
-    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="278" t="str">
         <f t="shared" si="1"/>
         <v>S-CK-CS_LPG_N1</v>
@@ -36360,7 +36357,7 @@
         <v>2019</v>
       </c>
       <c r="O13" s="278" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P13" s="282" t="str">
         <f>IF($Q13="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -36375,15 +36372,15 @@
         <v>Public Services Cooking - LPG - New</v>
       </c>
       <c r="S13" s="278" t="s">
+        <v>500</v>
+      </c>
+      <c r="T13" s="278" t="s">
         <v>501</v>
-      </c>
-      <c r="T13" s="278" t="s">
-        <v>502</v>
       </c>
       <c r="U13" s="271"/>
       <c r="V13" s="271"/>
       <c r="W13" s="278" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y13" s="256">
         <f t="shared" ref="Y13:AA13" si="5">Y9</f>
@@ -36398,21 +36395,21 @@
         <v>2625</v>
       </c>
       <c r="AD13" s="245" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE13" s="245" t="s">
         <v>495</v>
       </c>
-      <c r="AE13" s="245" t="s">
-        <v>496</v>
-      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AD14" s="245" t="s">
         <v>4</v>
       </c>
       <c r="AE14" s="245" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="248"/>
       <c r="B15" s="248"/>
       <c r="C15" s="248"/>
@@ -36436,10 +36433,10 @@
       <c r="V15" s="248"/>
       <c r="W15" s="248"/>
       <c r="AE15" s="245" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="248"/>
       <c r="B16" s="248"/>
       <c r="C16" s="248"/>
@@ -36463,10 +36460,10 @@
       <c r="V16" s="248"/>
       <c r="W16" s="248"/>
       <c r="AE16" s="245" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="248"/>
       <c r="B17" s="248"/>
       <c r="C17" s="248"/>
@@ -36490,7 +36487,7 @@
       <c r="V17" s="248"/>
       <c r="W17" s="248"/>
     </row>
-    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="248"/>
       <c r="B18" s="248"/>
       <c r="C18" s="248"/>
@@ -36514,7 +36511,7 @@
       <c r="V18" s="248"/>
       <c r="W18" s="248"/>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="248"/>
       <c r="B19" s="248"/>
       <c r="C19" s="248"/>
@@ -36538,33 +36535,33 @@
       <c r="V19" s="248"/>
       <c r="W19" s="248"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="L22" s="275"/>
       <c r="M22" s="275"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="L23" s="275"/>
       <c r="M23" s="275"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="L24" s="275"/>
       <c r="M24" s="275"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="L25" s="275"/>
       <c r="M25" s="275"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="L26" s="275"/>
       <c r="M26" s="275"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AF4:AI4"/>
   </mergeCells>
-  <conditionalFormatting sqref="V11 V15:V19 V7:V9">
+  <conditionalFormatting sqref="V7:V9 V11 V15:V19">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
       <formula>0.000000001</formula>
       <formula>1</formula>
@@ -36588,34 +36585,34 @@
       <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="245" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="245" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="245" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" style="245" customWidth="1"/>
+    <col min="2" max="2" width="45.3984375" style="245" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="245" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="245" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="245" customWidth="1"/>
-    <col min="6" max="10" width="10.7109375" style="245" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="245" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="245" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" style="245" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="245" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="245" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="245" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="52.140625" style="245" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.7109375" style="245" customWidth="1"/>
-    <col min="24" max="26" width="9.85546875" style="245" customWidth="1"/>
-    <col min="27" max="29" width="10.7109375" style="245" customWidth="1"/>
-    <col min="30" max="30" width="34.140625" style="245" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="245"/>
+    <col min="5" max="5" width="12.86328125" style="245" customWidth="1"/>
+    <col min="6" max="10" width="10.73046875" style="245" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="245" customWidth="1"/>
+    <col min="12" max="12" width="12.265625" style="245" customWidth="1"/>
+    <col min="13" max="14" width="10.73046875" style="245" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" style="245" customWidth="1"/>
+    <col min="16" max="16" width="10.73046875" style="245" customWidth="1"/>
+    <col min="17" max="17" width="16.73046875" style="245" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.1328125" style="245" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="10.73046875" style="245" customWidth="1"/>
+    <col min="24" max="26" width="9.86328125" style="245" customWidth="1"/>
+    <col min="27" max="29" width="10.73046875" style="245" customWidth="1"/>
+    <col min="30" max="30" width="34.1328125" style="245" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1328125" style="245"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="80"/>
       <c r="B2" s="52" t="s">
         <v>110</v>
@@ -36631,16 +36628,16 @@
         <v>111</v>
       </c>
       <c r="Y2" s="261" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF2" s="245" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG2" s="247" t="s">
         <v>493</v>
       </c>
-      <c r="AG2" s="247" t="s">
-        <v>494</v>
-      </c>
     </row>
-    <row r="3" spans="1:41" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="54" t="s">
         <v>112</v>
       </c>
@@ -36657,22 +36654,22 @@
         <v>115</v>
       </c>
       <c r="F3" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="H3" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="I3" s="54" t="s">
         <v>481</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>482</v>
       </c>
       <c r="J3" s="54" t="s">
         <v>140</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L3" s="54" t="s">
         <v>116</v>
@@ -36684,7 +36681,7 @@
         <v>117</v>
       </c>
       <c r="P3" s="54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q3" s="54" t="s">
         <v>112</v>
@@ -36708,44 +36705,44 @@
         <v>123</v>
       </c>
       <c r="Y3" s="373" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Z3" s="373"/>
       <c r="AA3" s="257" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AD3" s="267" t="s">
         <v>60</v>
       </c>
       <c r="AE3" s="274" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF3" s="268" t="s">
+        <v>482</v>
+      </c>
+      <c r="AG3" s="268" t="s">
         <v>483</v>
       </c>
-      <c r="AG3" s="268" t="s">
+      <c r="AH3" s="268" t="s">
         <v>484</v>
       </c>
-      <c r="AH3" s="268" t="s">
+      <c r="AI3" s="268" t="s">
         <v>485</v>
       </c>
-      <c r="AI3" s="268" t="s">
-        <v>486</v>
-      </c>
       <c r="AJ3" s="268" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AK3" s="268" t="s">
+        <v>479</v>
+      </c>
+      <c r="AL3" s="268" t="s">
         <v>480</v>
       </c>
-      <c r="AL3" s="268" t="s">
+      <c r="AM3" s="268" t="s">
         <v>481</v>
       </c>
-      <c r="AM3" s="268" t="s">
-        <v>482</v>
-      </c>
     </row>
-    <row r="4" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="39.4" x14ac:dyDescent="0.45">
       <c r="A4" s="243" t="s">
         <v>182</v>
       </c>
@@ -36779,7 +36776,7 @@
         <v>126</v>
       </c>
       <c r="P4" s="79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="77" t="s">
         <v>127</v>
@@ -36799,13 +36796,13 @@
       </c>
       <c r="W4" s="77"/>
       <c r="Y4" s="258" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z4" s="259" t="s">
         <v>490</v>
       </c>
-      <c r="Z4" s="259" t="s">
+      <c r="AA4" s="258" t="s">
         <v>491</v>
-      </c>
-      <c r="AA4" s="258" t="s">
-        <v>492</v>
       </c>
       <c r="AD4" s="259"/>
       <c r="AE4" s="259"/>
@@ -36816,13 +36813,13 @@
       <c r="AH4" s="374"/>
       <c r="AI4" s="374"/>
       <c r="AJ4" s="374" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AK4" s="374"/>
       <c r="AL4" s="374"/>
       <c r="AM4" s="374"/>
     </row>
-    <row r="5" spans="1:41" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="26.25" x14ac:dyDescent="0.45">
       <c r="A5" s="244" t="s">
         <v>109</v>
       </c>
@@ -36833,19 +36830,19 @@
         <v>125</v>
       </c>
       <c r="F5" s="320" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G5" s="244"/>
       <c r="H5" s="244"/>
       <c r="I5" s="244"/>
       <c r="J5" s="244" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K5" s="244" t="s">
         <v>139</v>
       </c>
       <c r="L5" s="229" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M5" s="244" t="s">
         <v>174</v>
@@ -36875,7 +36872,7 @@
       <c r="AL5" s="269"/>
       <c r="AM5" s="269"/>
     </row>
-    <row r="6" spans="1:41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="253" t="str">
         <f>O6</f>
         <v>*Refrigeration</v>
@@ -36892,7 +36889,7 @@
       <c r="U6" s="245"/>
       <c r="V6" s="245"/>
     </row>
-    <row r="7" spans="1:41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="248" t="str">
         <f>Q7</f>
         <v>S-REF-CS_ELC_N1</v>
@@ -36943,7 +36940,7 @@
       </c>
       <c r="N7" s="245"/>
       <c r="O7" s="248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P7" s="230" t="str">
         <f>IF($Q7="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -36958,15 +36955,15 @@
         <v>Commercial Services Refrigeration - Electricity - New</v>
       </c>
       <c r="S7" s="248" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T7" s="248" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U7" s="248"/>
       <c r="V7" s="248"/>
       <c r="W7" s="248" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y7" s="256">
         <v>0.18</v>
@@ -36980,7 +36977,7 @@
         <v>432</v>
       </c>
       <c r="AD7" s="245" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AE7" s="266" t="s">
         <v>142</v>
@@ -37011,7 +37008,7 @@
       </c>
       <c r="AO7" s="245"/>
     </row>
-    <row r="8" spans="1:41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="278" t="str">
         <f>Q8</f>
         <v>S-REF-PU_ELC_N1</v>
@@ -37062,7 +37059,7 @@
       </c>
       <c r="N8" s="245"/>
       <c r="O8" s="278" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P8" s="282" t="str">
         <f>IF($Q8="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -37077,15 +37074,15 @@
         <v>Public Services Refrigeration - Electricity - New</v>
       </c>
       <c r="S8" s="278" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T8" s="278" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="U8" s="278"/>
       <c r="V8" s="278"/>
       <c r="W8" s="278" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y8" s="256">
         <f>Y7</f>
@@ -37100,7 +37097,7 @@
         <v>432</v>
       </c>
       <c r="AD8" s="245" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AE8" s="266" t="s">
         <v>142</v>
@@ -37130,7 +37127,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="1:41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="253" t="str">
         <f>O9</f>
         <v>*Other appliances</v>
@@ -37143,7 +37140,7 @@
       <c r="Z9" s="262"/>
       <c r="AA9" s="264"/>
       <c r="AD9" s="245" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AE9" s="266" t="s">
         <v>142</v>
@@ -37161,7 +37158,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="10" spans="1:41" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="248" t="str">
         <f>Q10</f>
         <v>S-OEL-CS_ELC_N1</v>
@@ -37212,7 +37209,7 @@
       </c>
       <c r="N10" s="245"/>
       <c r="O10" s="248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P10" s="230" t="str">
         <f>IF($Q10="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -37227,24 +37224,24 @@
         <v>Commercial Services Other appliances - Electricity - New</v>
       </c>
       <c r="S10" s="248" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T10" s="248" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U10" s="248"/>
       <c r="V10" s="248"/>
       <c r="W10" s="248" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="X10" s="245"/>
       <c r="Z10" s="263"/>
       <c r="AA10" s="265"/>
       <c r="AD10" s="245" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AE10" s="266" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF10" s="346">
         <v>112.5849296</v>
@@ -37253,7 +37250,7 @@
       <c r="AH10" s="80"/>
       <c r="AI10" s="80"/>
     </row>
-    <row r="11" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="278" t="str">
         <f>Q11</f>
         <v>S-OEL-PU_ELC_N1</v>
@@ -37303,7 +37300,7 @@
         <v>2019</v>
       </c>
       <c r="O11" s="278" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P11" s="282" t="str">
         <f>IF($Q11="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -37318,22 +37315,22 @@
         <v>Public Services Other appliances - Electricity - New</v>
       </c>
       <c r="S11" s="278" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T11" s="278" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U11" s="278"/>
       <c r="V11" s="278"/>
       <c r="W11" s="278" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF11" s="80"/>
       <c r="AG11" s="80"/>
       <c r="AH11" s="80"/>
       <c r="AI11" s="80"/>
     </row>
-    <row r="12" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="253" t="str">
         <f>O12</f>
         <v>*Building lighting</v>
@@ -37359,7 +37356,7 @@
       <c r="AH12" s="80"/>
       <c r="AI12" s="80"/>
     </row>
-    <row r="13" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="248" t="str">
         <f>Q13</f>
         <v>S-LIG-CS_ELC_N1</v>
@@ -37408,7 +37405,7 @@
         <v>2019</v>
       </c>
       <c r="O13" s="248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P13" s="230" t="str">
         <f>IF($Q13="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -37423,21 +37420,21 @@
         <v>Commercial Services Building lighting - Electricity - New</v>
       </c>
       <c r="S13" s="248" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T13" s="248" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="U13" s="248"/>
       <c r="V13" s="248"/>
       <c r="W13" s="248" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y13" s="336">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="278" t="str">
         <f>Q14</f>
         <v>S-LIG-PU_ELC_N1</v>
@@ -37487,7 +37484,7 @@
         <v>2019</v>
       </c>
       <c r="O14" s="278" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P14" s="282" t="str">
         <f>IF($Q14="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -37502,22 +37499,22 @@
         <v>Public Services Building lighting - Electricity - New</v>
       </c>
       <c r="S14" s="278" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T14" s="278" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="U14" s="278"/>
       <c r="V14" s="278"/>
       <c r="W14" s="278" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF14" s="80"/>
       <c r="AG14" s="80"/>
       <c r="AH14" s="80"/>
       <c r="AI14" s="80"/>
     </row>
-    <row r="15" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="253" t="str">
         <f>O15</f>
         <v>*Public lighting</v>
@@ -37537,7 +37534,7 @@
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
     </row>
-    <row r="16" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="248" t="str">
         <f>Q16</f>
         <v>S-PLIG-PU_N1</v>
@@ -37574,7 +37571,7 @@
         <v>2019</v>
       </c>
       <c r="O16" s="339" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P16" s="230" t="str">
         <f>IF($Q16="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -37589,18 +37586,18 @@
         <v>Public Services Public lighting - Electricity - New Ord</v>
       </c>
       <c r="S16" s="339" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T16" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
       <c r="W16" s="248" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="278" t="str">
         <f>Q17</f>
         <v>S-PLIG-PU_N2</v>
@@ -37649,7 +37646,7 @@
         <v>2019</v>
       </c>
       <c r="O17" s="341" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P17" s="282" t="str">
         <f>IF($Q17="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
@@ -37664,36 +37661,36 @@
         <v>Public Services Public lighting - Electricity - New High Eff</v>
       </c>
       <c r="S17" s="341" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T17" s="148" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="U17" s="340"/>
       <c r="V17" s="340"/>
       <c r="W17" s="278" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
       <c r="L18" s="266"/>
       <c r="M18" s="266"/>
       <c r="AD18" s="245" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE18" s="245" t="s">
         <v>495</v>
       </c>
-      <c r="AE18" s="245" t="s">
-        <v>496</v>
-      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
       <c r="AD19" s="245" t="s">
         <v>4</v>
       </c>
       <c r="AE19" s="245" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -37708,10 +37705,10 @@
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="AE20" s="245" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -37726,10 +37723,10 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="AE21" s="245" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -37744,27 +37741,27 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="AD22" s="245" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AE22" s="276" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
+      <c r="AE23" s="245" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AE23" s="245" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D27" s="28" t="str">
         <f>IF($Y27="","",CONCATENATE(Legend!$C$2,AA27,"-",Legend!$C$33))</f>
         <v/>
       </c>
       <c r="AD27" s="245" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D28" s="248"/>
       <c r="AD28"/>
       <c r="AE28"/>
@@ -37775,7 +37772,7 @@
       <c r="AJ28"/>
       <c r="AK28"/>
       <c r="AL28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM28"/>
       <c r="AN28"/>
@@ -37788,7 +37785,7 @@
       <c r="AU28"/>
       <c r="AV28"/>
     </row>
-    <row r="29" spans="1:48" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="26.25" x14ac:dyDescent="0.45">
       <c r="D29" s="248"/>
       <c r="AD29"/>
       <c r="AE29"/>
@@ -37796,12 +37793,12 @@
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29" s="323" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AJ29"/>
       <c r="AK29"/>
       <c r="AL29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AM29"/>
       <c r="AN29"/>
@@ -37814,44 +37811,44 @@
       <c r="AU29"/>
       <c r="AV29"/>
     </row>
-    <row r="30" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD30"/>
       <c r="AE30"/>
       <c r="AF30"/>
       <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30" s="324" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AJ30"/>
       <c r="AK30"/>
       <c r="AL30"/>
       <c r="AM30" s="378" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AN30" s="378"/>
       <c r="AO30" s="325"/>
       <c r="AP30" s="375" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AQ30" s="375"/>
       <c r="AR30" s="375" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AS30" s="375"/>
       <c r="AT30" s="376" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AU30" s="376"/>
       <c r="AV30"/>
     </row>
-    <row r="31" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD31" s="326" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AE31"/>
       <c r="AF31" s="327" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG31"/>
       <c r="AH31"/>
@@ -37887,9 +37884,9 @@
       </c>
       <c r="AV31"/>
     </row>
-    <row r="32" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AE32"/>
       <c r="AF32"/>
@@ -37901,7 +37898,7 @@
       <c r="AJ32"/>
       <c r="AK32"/>
       <c r="AL32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM32">
         <v>17</v>
@@ -37932,9 +37929,9 @@
       </c>
       <c r="AV32"/>
     </row>
-    <row r="33" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD33" s="326" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AE33"/>
       <c r="AF33"/>
@@ -37946,7 +37943,7 @@
       <c r="AJ33"/>
       <c r="AK33"/>
       <c r="AL33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM33">
         <v>24</v>
@@ -37979,7 +37976,7 @@
       </c>
       <c r="AV33"/>
     </row>
-    <row r="34" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD34"/>
       <c r="AE34"/>
       <c r="AF34"/>
@@ -37991,7 +37988,7 @@
       <c r="AJ34"/>
       <c r="AK34"/>
       <c r="AL34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AM34">
         <v>120</v>
@@ -38026,7 +38023,7 @@
       </c>
       <c r="AV34"/>
     </row>
-    <row r="35" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD35"/>
       <c r="AE35"/>
       <c r="AF35"/>
@@ -38038,7 +38035,7 @@
       <c r="AJ35"/>
       <c r="AK35"/>
       <c r="AL35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM35">
         <v>100</v>
@@ -38071,7 +38068,7 @@
       </c>
       <c r="AV35"/>
     </row>
-    <row r="36" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD36"/>
       <c r="AE36"/>
       <c r="AF36"/>
@@ -38083,7 +38080,7 @@
       <c r="AJ36"/>
       <c r="AK36"/>
       <c r="AL36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM36">
         <v>275</v>
@@ -38101,7 +38098,7 @@
       <c r="AU36"/>
       <c r="AV36"/>
     </row>
-    <row r="37" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37"/>
@@ -38111,7 +38108,7 @@
       <c r="AJ37"/>
       <c r="AK37"/>
       <c r="AL37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM37">
         <v>280</v>
@@ -38129,7 +38126,7 @@
       <c r="AU37"/>
       <c r="AV37"/>
     </row>
-    <row r="38" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD38"/>
       <c r="AE38"/>
       <c r="AF38"/>
@@ -38139,7 +38136,7 @@
       <c r="AJ38"/>
       <c r="AK38"/>
       <c r="AL38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AM38"/>
       <c r="AN38"/>
@@ -38161,7 +38158,7 @@
         <v>1.4969390729763872</v>
       </c>
     </row>
-    <row r="39" spans="30:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="30:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AD39"/>
       <c r="AE39"/>
       <c r="AF39"/>
@@ -38182,7 +38179,7 @@
       <c r="AU39"/>
       <c r="AV39"/>
     </row>
-    <row r="41" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD41"/>
       <c r="AE41"/>
       <c r="AF41" s="337"/>
@@ -38190,7 +38187,7 @@
       <c r="AH41" s="337"/>
       <c r="AI41" s="337"/>
     </row>
-    <row r="42" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD42"/>
       <c r="AE42"/>
       <c r="AF42" s="377"/>
@@ -38198,7 +38195,7 @@
       <c r="AH42" s="377"/>
       <c r="AI42" s="377"/>
     </row>
-    <row r="43" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD43"/>
       <c r="AE43"/>
       <c r="AF43" s="377"/>
@@ -38206,11 +38203,11 @@
       <c r="AH43" s="377"/>
       <c r="AI43" s="377"/>
     </row>
-    <row r="44" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD44"/>
       <c r="AE44"/>
     </row>
-    <row r="45" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD45"/>
       <c r="AE45"/>
       <c r="AF45" s="338"/>
@@ -38218,7 +38215,7 @@
       <c r="AH45" s="338"/>
       <c r="AI45" s="338"/>
     </row>
-    <row r="46" spans="30:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="30:48" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AD46" s="54" t="s">
         <v>112</v>
       </c>
@@ -38229,32 +38226,32 @@
         <v>140</v>
       </c>
       <c r="AG46" s="54" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AH46" s="54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AI46" s="54" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="30:48" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="30:48" ht="28.5" x14ac:dyDescent="0.45">
       <c r="AD47" s="343"/>
       <c r="AE47" s="343" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF47" s="343" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG47" s="343" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AH47" s="343"/>
       <c r="AI47" s="343"/>
     </row>
-    <row r="48" spans="30:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="30:48" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD48" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AE48" s="342">
         <v>1.1258492960000001E-3</v>
@@ -38269,7 +38266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="30:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="30:35" ht="14.25" x14ac:dyDescent="0.45">
       <c r="AD49"/>
       <c r="AE49"/>
       <c r="AF49" s="338"/>
@@ -38322,28 +38319,28 @@
   <dimension ref="A1:CM70"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC1048576"/>
+      <selection pane="bottomRight" activeCell="BA28" sqref="BA28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.28515625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="3"/>
-    <col min="9" max="43" width="9.140625" style="3" customWidth="1"/>
-    <col min="44" max="48" width="9.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="49" max="53" width="9.140625" style="3" customWidth="1"/>
-    <col min="54" max="73" width="9.140625" style="3"/>
-    <col min="74" max="74" width="33.140625" style="3" customWidth="1"/>
-    <col min="75" max="89" width="9.140625" style="3"/>
-    <col min="90" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.265625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.1328125" style="3"/>
+    <col min="9" max="43" width="9.1328125" style="3" customWidth="1"/>
+    <col min="44" max="48" width="9.1328125" style="3" hidden="1" customWidth="1"/>
+    <col min="49" max="53" width="9.1328125" style="3" customWidth="1"/>
+    <col min="54" max="73" width="9.1328125" style="3"/>
+    <col min="74" max="74" width="33.1328125" style="3" customWidth="1"/>
+    <col min="75" max="89" width="9.1328125" style="3"/>
+    <col min="90" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -38361,7 +38358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
@@ -38450,7 +38447,7 @@
       <c r="BZ2" s="6"/>
       <c r="CA2" s="6"/>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>187</v>
       </c>
@@ -38532,7 +38529,7 @@
       <c r="BZ3" s="6"/>
       <c r="CA3" s="6"/>
     </row>
-    <row r="4" spans="1:89" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
@@ -38665,7 +38662,7 @@
       <c r="CJ4" s="383"/>
       <c r="CK4" s="384"/>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -38926,7 +38923,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="82" t="s">
         <v>45</v>
       </c>
@@ -39049,7 +39046,7 @@
       <c r="CJ6" s="86"/>
       <c r="CK6" s="87"/>
     </row>
-    <row r="7" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="88" t="s">
         <v>188</v>
       </c>
@@ -39306,7 +39303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88" t="s">
         <v>191</v>
       </c>
@@ -39558,7 +39555,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="88" t="s">
         <v>193</v>
       </c>
@@ -39817,7 +39814,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="10" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="88" t="s">
         <v>198</v>
       </c>
@@ -40086,7 +40083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="88" t="s">
         <v>201</v>
       </c>
@@ -40345,7 +40342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="88" t="s">
         <v>205</v>
       </c>
@@ -40604,7 +40601,7 @@
         <v>7.2727272727272724E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="88" t="s">
         <v>209</v>
       </c>
@@ -40863,7 +40860,7 @@
         <v>0.13333333333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="88"/>
       <c r="B14" s="89"/>
       <c r="C14" s="90" t="s">
@@ -41051,7 +41048,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="82" t="s">
         <v>47</v>
       </c>
@@ -41239,7 +41236,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="88" t="s">
         <v>213</v>
       </c>
@@ -41496,7 +41493,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="17" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="88"/>
       <c r="B17" s="89"/>
       <c r="C17" s="90" t="s">
@@ -41759,7 +41756,7 @@
         <v>10.204081632653061</v>
       </c>
     </row>
-    <row r="18" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="88" t="s">
         <v>216</v>
       </c>
@@ -42013,7 +42010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="88" t="s">
         <v>219</v>
       </c>
@@ -42270,7 +42267,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="20" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="88" t="s">
         <v>222</v>
       </c>
@@ -42524,7 +42521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="88" t="s">
         <v>226</v>
       </c>
@@ -42783,7 +42780,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="88" t="s">
         <v>21</v>
       </c>
@@ -43037,7 +43034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
       <c r="C23" s="90" t="s">
@@ -43245,7 +43242,7 @@
         <v>1.0344827586206897</v>
       </c>
     </row>
-    <row r="24" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="88" t="s">
         <v>230</v>
       </c>
@@ -43497,7 +43494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="88" t="s">
         <v>232</v>
       </c>
@@ -43754,7 +43751,7 @@
         <v>4.2056074766355138</v>
       </c>
     </row>
-    <row r="26" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="89" t="s">
         <v>178</v>
       </c>
@@ -44026,7 +44023,7 @@
         <v>81.788888888888891</v>
       </c>
     </row>
-    <row r="27" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="82" t="s">
         <v>235</v>
       </c>
@@ -44214,7 +44211,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="88" t="s">
         <v>236</v>
       </c>
@@ -44458,7 +44455,7 @@
         <v>7.833333333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="88" t="s">
         <v>238</v>
       </c>
@@ -44702,7 +44699,7 @@
         <v>2.9375</v>
       </c>
     </row>
-    <row r="30" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="88" t="s">
         <v>240</v>
       </c>
@@ -44822,20 +44819,20 @@
       <c r="AT30" s="92"/>
       <c r="AU30" s="92"/>
       <c r="AV30" s="93"/>
-      <c r="AW30" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="AX30" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="AY30" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="AZ30" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="BA30" s="93" t="s">
-        <v>243</v>
+      <c r="AW30" s="92">
+        <v>20</v>
+      </c>
+      <c r="AX30" s="92">
+        <v>20</v>
+      </c>
+      <c r="AY30" s="92">
+        <v>20</v>
+      </c>
+      <c r="AZ30" s="92">
+        <v>20</v>
+      </c>
+      <c r="BA30" s="93">
+        <v>20</v>
       </c>
       <c r="BB30" s="96">
         <v>47500</v>
@@ -44951,15 +44948,15 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="31" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="C31" s="109" t="s">
         <v>245</v>
-      </c>
-      <c r="C31" s="109" t="s">
-        <v>246</v>
       </c>
       <c r="D31" s="91" t="s">
         <v>91</v>
@@ -45195,15 +45192,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="89" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D32" s="91">
         <v>0</v>
@@ -45447,7 +45444,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="82" t="s">
         <v>24</v>
       </c>
@@ -45625,7 +45622,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="88" t="s">
         <v>49</v>
       </c>
@@ -45879,7 +45876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="88"/>
       <c r="B35" s="89"/>
       <c r="C35" s="90" t="s">
@@ -46079,12 +46076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="89" t="s">
         <v>249</v>
-      </c>
-      <c r="B36" s="89" t="s">
-        <v>250</v>
       </c>
       <c r="C36" s="90" t="s">
         <v>51</v>
@@ -46120,13 +46117,13 @@
         <v>0</v>
       </c>
       <c r="N36" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="O36" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="O36" s="92" t="s">
-        <v>252</v>
-      </c>
       <c r="P36" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="92">
         <v>0</v>
@@ -46140,13 +46137,13 @@
       <c r="V36" s="92"/>
       <c r="W36" s="93"/>
       <c r="X36" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y36" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z36" s="92" t="s">
         <v>253</v>
-      </c>
-      <c r="Y36" s="92" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z36" s="92" t="s">
-        <v>254</v>
       </c>
       <c r="AA36" s="92">
         <v>0</v>
@@ -46208,10 +46205,10 @@
         <v>10</v>
       </c>
       <c r="AX36" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AY36" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AZ36" s="92">
         <v>0</v>
@@ -46280,7 +46277,7 @@
         <v>0</v>
       </c>
       <c r="BV36" s="135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BW36" s="190">
         <f t="shared" si="22"/>
@@ -46343,12 +46340,12 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="89" t="s">
         <v>257</v>
-      </c>
-      <c r="B37" s="89" t="s">
-        <v>258</v>
       </c>
       <c r="C37" s="90" t="s">
         <v>29</v>
@@ -46374,28 +46371,28 @@
         <v>162.5</v>
       </c>
       <c r="I37" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="J37" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="J37" s="92" t="s">
+      <c r="K37" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="K37" s="92" t="s">
+      <c r="L37" s="92">
+        <v>0</v>
+      </c>
+      <c r="M37" s="93">
+        <v>0</v>
+      </c>
+      <c r="N37" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="L37" s="92">
-        <v>0</v>
-      </c>
-      <c r="M37" s="93">
-        <v>0</v>
-      </c>
-      <c r="N37" s="92" t="s">
-        <v>262</v>
-      </c>
       <c r="O37" s="92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P37" s="92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="92">
         <v>0</v>
@@ -46409,13 +46406,13 @@
       <c r="V37" s="92"/>
       <c r="W37" s="93"/>
       <c r="X37" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y37" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z37" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA37" s="92">
         <v>0</v>
@@ -46549,7 +46546,7 @@
         <v>0</v>
       </c>
       <c r="BV37" s="135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BW37" s="190">
         <f t="shared" si="22"/>
@@ -46612,7 +46609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="88" t="s">
         <v>52</v>
       </c>
@@ -46866,12 +46863,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="89" t="s">
         <v>264</v>
-      </c>
-      <c r="B39" s="89" t="s">
-        <v>265</v>
       </c>
       <c r="C39" s="90" t="s">
         <v>25</v>
@@ -46912,13 +46909,13 @@
         <v>0</v>
       </c>
       <c r="N39" s="92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O39" s="92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P39" s="92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q39" s="92">
         <v>0</v>
@@ -46932,13 +46929,13 @@
       <c r="V39" s="92"/>
       <c r="W39" s="93"/>
       <c r="X39" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y39" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z39" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA39" s="92">
         <v>0</v>
@@ -47000,10 +46997,10 @@
         <v>10</v>
       </c>
       <c r="AX39" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AY39" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AZ39" s="92">
         <v>0</v>
@@ -47072,7 +47069,7 @@
         <v>0</v>
       </c>
       <c r="BV39" s="135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BW39" s="190">
         <f t="shared" si="22"/>
@@ -47135,12 +47132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="89" t="s">
         <v>268</v>
-      </c>
-      <c r="B40" s="89" t="s">
-        <v>269</v>
       </c>
       <c r="C40" s="90" t="s">
         <v>31</v>
@@ -47176,13 +47173,13 @@
         <v>0</v>
       </c>
       <c r="N40" s="92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O40" s="92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P40" s="92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q40" s="92">
         <v>0</v>
@@ -47196,13 +47193,13 @@
       <c r="V40" s="92"/>
       <c r="W40" s="93"/>
       <c r="X40" s="92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y40" s="92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z40" s="92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA40" s="92">
         <v>0</v>
@@ -47264,10 +47261,10 @@
         <v>10</v>
       </c>
       <c r="AX40" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AY40" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AZ40" s="92">
         <v>0</v>
@@ -47336,7 +47333,7 @@
         <v>0</v>
       </c>
       <c r="BV40" s="135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BW40" s="190">
         <f t="shared" si="22"/>
@@ -47399,24 +47396,24 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="89" t="s">
         <v>271</v>
-      </c>
-      <c r="B41" s="89" t="s">
-        <v>272</v>
       </c>
       <c r="C41" s="90" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E41" s="92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F41" s="92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G41" s="92" t="s">
         <v>185</v>
@@ -47425,28 +47422,28 @@
         <v>185</v>
       </c>
       <c r="I41" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="J41" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="K41" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="L41" s="92">
+        <v>0</v>
+      </c>
+      <c r="M41" s="93">
+        <v>0</v>
+      </c>
+      <c r="N41" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="J41" s="92" t="s">
+      <c r="O41" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="K41" s="92" t="s">
+      <c r="P41" s="92" t="s">
         <v>274</v>
-      </c>
-      <c r="L41" s="92">
-        <v>0</v>
-      </c>
-      <c r="M41" s="93">
-        <v>0</v>
-      </c>
-      <c r="N41" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="O41" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="P41" s="92" t="s">
-        <v>275</v>
       </c>
       <c r="Q41" s="92">
         <v>0</v>
@@ -47460,13 +47457,13 @@
       <c r="V41" s="92"/>
       <c r="W41" s="93"/>
       <c r="X41" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y41" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z41" s="92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA41" s="92">
         <v>0</v>
@@ -47525,13 +47522,13 @@
       <c r="AU41" s="92"/>
       <c r="AV41" s="93"/>
       <c r="AW41" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="AX41" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="AX41" s="92" t="s">
-        <v>278</v>
-      </c>
       <c r="AY41" s="92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AZ41" s="92">
         <v>0</v>
@@ -47600,7 +47597,7 @@
         <v>0</v>
       </c>
       <c r="BV41" s="135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BW41" s="190">
         <f t="shared" si="22"/>
@@ -47663,12 +47660,12 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" s="89" t="s">
         <v>279</v>
-      </c>
-      <c r="B42" s="89" t="s">
-        <v>280</v>
       </c>
       <c r="C42" s="90" t="s">
         <v>33</v>
@@ -47704,13 +47701,13 @@
         <v>0</v>
       </c>
       <c r="N42" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O42" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P42" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="92">
         <v>0</v>
@@ -47724,13 +47721,13 @@
       <c r="V42" s="92"/>
       <c r="W42" s="93"/>
       <c r="X42" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y42" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z42" s="92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA42" s="92">
         <v>0</v>
@@ -47792,10 +47789,10 @@
         <v>7</v>
       </c>
       <c r="AX42" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AY42" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AZ42" s="92">
         <v>0</v>
@@ -47864,7 +47861,7 @@
         <v>0</v>
       </c>
       <c r="BV42" s="135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BW42" s="190">
         <f t="shared" si="22"/>
@@ -47927,7 +47924,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="82" t="s">
         <v>4</v>
       </c>
@@ -48095,7 +48092,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="88"/>
       <c r="B44" s="89"/>
       <c r="C44" s="90" t="s">
@@ -48273,15 +48270,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="C45" s="90" t="s">
         <v>282</v>
-      </c>
-      <c r="C45" s="90" t="s">
-        <v>283</v>
       </c>
       <c r="D45" s="91">
         <v>4.2</v>
@@ -48515,15 +48512,15 @@
         <v>14.761904761904761</v>
       </c>
     </row>
-    <row r="46" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="C46" s="90" t="s">
         <v>285</v>
-      </c>
-      <c r="C46" s="90" t="s">
-        <v>286</v>
       </c>
       <c r="D46" s="91">
         <v>140</v>
@@ -48757,11 +48754,11 @@
         <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="47" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="88"/>
       <c r="B47" s="89"/>
       <c r="C47" s="90" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D47" s="91"/>
       <c r="E47" s="92"/>
@@ -48935,15 +48932,15 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="C48" s="90" t="s">
         <v>289</v>
-      </c>
-      <c r="C48" s="90" t="s">
-        <v>290</v>
       </c>
       <c r="D48" s="91">
         <v>5</v>
@@ -49126,7 +49123,7 @@
         <v>0</v>
       </c>
       <c r="BV48" s="135" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BW48" s="190">
         <f t="shared" si="22"/>
@@ -49189,15 +49186,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="B49" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="C49" s="90" t="s">
         <v>293</v>
-      </c>
-      <c r="C49" s="90" t="s">
-        <v>294</v>
       </c>
       <c r="D49" s="91">
         <v>400</v>
@@ -49380,7 +49377,7 @@
         <v>0</v>
       </c>
       <c r="BV49" s="135" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BW49" s="190">
         <f t="shared" si="22"/>
@@ -49443,7 +49440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="88" t="s">
         <v>23</v>
       </c>
@@ -49697,11 +49694,11 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="88"/>
       <c r="B51" s="89"/>
       <c r="C51" s="90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D51" s="91"/>
       <c r="E51" s="92"/>
@@ -49875,9 +49872,9 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="112" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B52" s="113" t="s">
         <v>6</v>
@@ -50127,9 +50124,9 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="112" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B53" s="113" t="s">
         <v>6</v>
@@ -50379,9 +50376,9 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="112" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B54" s="113" t="s">
         <v>6</v>
@@ -50631,9 +50628,9 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="112" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B55" s="113" t="s">
         <v>6</v>
@@ -50883,9 +50880,9 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="112" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B56" s="113" t="s">
         <v>6</v>
@@ -51135,9 +51132,9 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="112" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B57" s="113" t="s">
         <v>6</v>
@@ -51387,9 +51384,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="112" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B58" s="113" t="s">
         <v>6</v>
@@ -51639,9 +51636,9 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="112" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B59" s="113" t="s">
         <v>6</v>
@@ -51891,12 +51888,12 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="112" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="113" t="s">
         <v>304</v>
-      </c>
-      <c r="B60" s="113" t="s">
-        <v>305</v>
       </c>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
@@ -52121,12 +52118,12 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:89" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="112" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" s="113" t="s">
         <v>306</v>
-      </c>
-      <c r="B61" s="113" t="s">
-        <v>307</v>
       </c>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
@@ -52356,9 +52353,9 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A62" s="88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B62" s="89" t="s">
         <v>55</v>
@@ -52608,9 +52605,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A63" s="123" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B63" s="124" t="s">
         <v>6</v>
@@ -52860,7 +52857,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:89" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D64" s="144"/>
       <c r="E64" s="144"/>
       <c r="F64" s="144"/>
@@ -52948,7 +52945,7 @@
       <c r="CJ64" s="144"/>
       <c r="CK64" s="144"/>
     </row>
-    <row r="65" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D65" s="144"/>
       <c r="E65" s="144"/>
       <c r="F65" s="144"/>
@@ -53036,7 +53033,7 @@
       <c r="CJ65" s="144"/>
       <c r="CK65" s="144"/>
     </row>
-    <row r="66" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D66" s="144"/>
       <c r="E66" s="144"/>
       <c r="F66" s="144"/>
@@ -53124,7 +53121,7 @@
       <c r="CJ66" s="144"/>
       <c r="CK66" s="144"/>
     </row>
-    <row r="67" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D67" s="144"/>
       <c r="E67" s="144"/>
       <c r="F67" s="144"/>
@@ -53212,7 +53209,7 @@
       <c r="CJ67" s="144"/>
       <c r="CK67" s="144"/>
     </row>
-    <row r="68" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D68" s="144"/>
       <c r="E68" s="144"/>
       <c r="F68" s="144"/>
@@ -53300,7 +53297,7 @@
       <c r="CJ68" s="144"/>
       <c r="CK68" s="144"/>
     </row>
-    <row r="69" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D69" s="144"/>
       <c r="E69" s="144"/>
       <c r="F69" s="144"/>
@@ -53391,7 +53388,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:91" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D70" s="144"/>
       <c r="E70" s="144"/>
       <c r="F70" s="144"/>
@@ -53481,11 +53478,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -53498,6 +53490,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53703,18 +53700,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53737,18 +53734,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1E081D-67D2-4E7B-BE8D-7D1C1B8C3BE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97068170-2C4B-42A9-8C54-B2D8E2BB2908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>